--- a/2024/.个人/微习惯新世界.xlsx
+++ b/2024/.个人/微习惯新世界.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1.NoteLibrary\StudyNotes\2024\.个人\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43871C49-29B8-419A-8BE2-D5AC191E860C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916B610D-09EC-45FA-A3B5-00C60F7CBCFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -250,7 +250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -280,13 +280,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6174,7 +6168,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6282,7 +6276,9 @@
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1">
+        <v>8.5</v>
+      </c>
       <c r="C4" s="4">
         <v>0</v>
       </c>
@@ -6416,7 +6412,9 @@
       <c r="A10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="7"/>
+      <c r="B10" s="7">
+        <v>40</v>
+      </c>
       <c r="C10" s="2">
         <v>10</v>
       </c>
@@ -6502,7 +6500,9 @@
       <c r="A14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" s="2">
+        <v>12</v>
+      </c>
       <c r="C14" s="2">
         <v>84</v>
       </c>
@@ -6544,35 +6544,80 @@
       <c r="A16" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
+      <c r="B16" s="7">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0</v>
+      </c>
+      <c r="H16" s="7">
+        <v>1</v>
+      </c>
+      <c r="I16" s="7">
+        <v>3</v>
+      </c>
+      <c r="J16" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="7" t="s">
         <v>33</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
+      <c r="A19" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/2024/.个人/微习惯新世界.xlsx
+++ b/2024/.个人/微习惯新世界.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1.NoteLibrary\StudyNotes\2024\.个人\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916B610D-09EC-45FA-A3B5-00C60F7CBCFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C945D5-2EFE-4A58-ACD0-BAB60BE6212E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="33">
   <si>
     <t>微习惯💎</t>
   </si>
@@ -81,9 +81,6 @@
   </si>
   <si>
     <t>骑行</t>
-  </si>
-  <si>
-    <t>胸</t>
   </si>
   <si>
     <t>背</t>
@@ -250,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -281,6 +278,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -435,7 +435,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>全部图表!$B$1:$J$1</c:f>
+              <c:f>全部图表!$C$1:$K$1</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
                 <c:ptCount val="9"/>
@@ -471,7 +471,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>全部图表!$B$2:$J$2</c:f>
+              <c:f>全部图表!$C$2:$K$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -788,7 +788,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>全部图表!$B$1:$J$1</c:f>
+              <c:f>全部图表!$C$1:$K$1</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
                 <c:ptCount val="9"/>
@@ -824,7 +824,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>全部图表!$B$3:$J$3</c:f>
+              <c:f>全部图表!$C$3:$K$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1116,7 +1116,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>全部图表!$A$7</c:f>
+              <c:f>全部图表!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1206,7 +1206,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>全部图表!$B$1:$J$1</c:f>
+              <c:f>全部图表!$C$1:$K$1</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1242,7 +1242,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>全部图表!$B$7:$J$7</c:f>
+              <c:f>全部图表!$C$6:$K$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1288,7 +1288,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>全部图表!$A$8</c:f>
+              <c:f>全部图表!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1378,7 +1378,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>全部图表!$B$1:$J$1</c:f>
+              <c:f>全部图表!$C$1:$K$1</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1414,12 +1414,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>全部图表!$B$8:$J$8</c:f>
+              <c:f>全部图表!$C$7:$K$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -5451,13 +5451,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5485,15 +5485,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5521,15 +5521,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6165,73 +6165,74 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46AAD2A0-53C1-4B51-8443-D48BC613435D}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="15" width="10.77734375" customWidth="1"/>
+    <col min="2" max="16" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="3">
+        <v>45301</v>
+      </c>
+      <c r="C1" s="3">
         <v>45300</v>
       </c>
-      <c r="C1" s="3">
+      <c r="D1" s="3">
         <v>45299</v>
       </c>
-      <c r="D1" s="3">
+      <c r="E1" s="3">
         <v>45298</v>
       </c>
-      <c r="E1" s="3">
+      <c r="F1" s="3">
         <v>45297</v>
       </c>
-      <c r="F1" s="3">
+      <c r="G1" s="3">
         <v>45296</v>
       </c>
-      <c r="G1" s="3">
+      <c r="H1" s="3">
         <v>45295</v>
       </c>
-      <c r="H1" s="3">
+      <c r="I1" s="3">
         <v>45294</v>
       </c>
-      <c r="I1" s="3">
+      <c r="J1" s="3">
         <v>45293</v>
       </c>
-      <c r="J1" s="3">
+      <c r="K1" s="3">
         <v>45292</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1">
         <v>162.9</v>
       </c>
-      <c r="C2" s="4">
+      <c r="D2" s="4">
         <v>163.5</v>
       </c>
-      <c r="D2" s="4">
+      <c r="E2" s="4">
         <v>161</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>161</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>162.9</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>164</v>
-      </c>
-      <c r="H2" s="1">
-        <v>164.8</v>
       </c>
       <c r="I2" s="1">
         <v>164.8</v>
@@ -6239,110 +6240,133 @@
       <c r="J2" s="1">
         <v>164.8</v>
       </c>
+      <c r="K2" s="1">
+        <v>164.8</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1">
         <v>30</v>
       </c>
-      <c r="C3" s="4">
+      <c r="D3" s="4">
         <v>0</v>
       </c>
-      <c r="D3" s="4">
+      <c r="E3" s="4">
         <v>30</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>100</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>0</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>200</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>0</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>200</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1">
         <v>8.5</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0</v>
       </c>
       <c r="D4" s="4">
         <v>0</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="4">
         <v>0</v>
       </c>
       <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
         <v>17</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>8.5</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>17</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
       </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="4"/>
+      <c r="C5" s="1"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="1"/>
+      <c r="E5" s="4"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="C6" s="1">
+        <v>60</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="1">
-        <v>60</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1">
+        <v>200</v>
+      </c>
+      <c r="D7" s="4">
         <v>0</v>
       </c>
       <c r="E7" s="1">
@@ -6363,261 +6387,243 @@
       <c r="J7" s="1">
         <v>0</v>
       </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7">
+        <v>40</v>
+      </c>
+      <c r="D9" s="2">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2">
+        <v>10</v>
+      </c>
+      <c r="F9" s="7">
+        <v>10</v>
+      </c>
+      <c r="G9" s="7">
+        <v>100</v>
+      </c>
+      <c r="H9" s="7">
+        <v>60</v>
+      </c>
+      <c r="I9" s="7">
+        <v>10</v>
+      </c>
+      <c r="J9" s="7">
+        <v>170</v>
+      </c>
+      <c r="K9" s="7">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+    </row>
+    <row r="11" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7">
+        <v>25</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>5</v>
+      </c>
+      <c r="F11" s="7">
+        <v>30</v>
+      </c>
+      <c r="G11" s="7">
+        <v>10</v>
+      </c>
+      <c r="H11" s="7">
+        <v>10</v>
+      </c>
+      <c r="I11" s="7">
+        <v>10</v>
+      </c>
+      <c r="J11" s="7">
+        <v>10</v>
+      </c>
+      <c r="K11" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2">
+        <v>12</v>
+      </c>
+      <c r="D13" s="2">
+        <v>84</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2">
+        <v>43</v>
+      </c>
+      <c r="G13" s="2">
+        <v>14</v>
+      </c>
+      <c r="H13" s="2">
+        <v>25</v>
+      </c>
+      <c r="I13" s="2">
+        <v>12</v>
+      </c>
+      <c r="J13" s="2">
         <v>21</v>
       </c>
-      <c r="B8" s="1">
-        <v>50</v>
-      </c>
-      <c r="C8" s="4">
+      <c r="K13" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+    </row>
+    <row r="15" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7">
         <v>0</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D15" s="2">
         <v>0</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E15" s="2">
+        <v>2</v>
+      </c>
+      <c r="F15" s="7">
+        <v>1</v>
+      </c>
+      <c r="G15" s="7">
         <v>0</v>
       </c>
-      <c r="F8" s="1">
+      <c r="H15" s="7">
         <v>0</v>
       </c>
-      <c r="G8" s="1">
+      <c r="I15" s="7">
+        <v>1</v>
+      </c>
+      <c r="J15" s="7">
+        <v>3</v>
+      </c>
+      <c r="K15" s="7">
         <v>0</v>
       </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="9" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
     </row>
-    <row r="10" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="7">
-        <v>40</v>
-      </c>
-      <c r="C10" s="2">
-        <v>10</v>
-      </c>
-      <c r="D10" s="2">
-        <v>10</v>
-      </c>
-      <c r="E10" s="7">
-        <v>10</v>
-      </c>
-      <c r="F10" s="7">
-        <v>100</v>
-      </c>
-      <c r="G10" s="7">
-        <v>60</v>
-      </c>
-      <c r="H10" s="7">
-        <v>10</v>
-      </c>
-      <c r="I10" s="7">
-        <v>170</v>
-      </c>
-      <c r="J10" s="7">
-        <v>90</v>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-    </row>
-    <row r="12" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="7">
-        <v>25</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2">
-        <v>5</v>
-      </c>
-      <c r="E12" s="7">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7">
-        <v>10</v>
-      </c>
-      <c r="G12" s="7">
-        <v>10</v>
-      </c>
-      <c r="H12" s="7">
-        <v>10</v>
-      </c>
-      <c r="I12" s="7">
-        <v>10</v>
-      </c>
-      <c r="J12" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-    </row>
-    <row r="14" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="2">
-        <v>12</v>
-      </c>
-      <c r="C14" s="2">
-        <v>84</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2">
-        <v>43</v>
-      </c>
-      <c r="F14" s="2">
-        <v>14</v>
-      </c>
-      <c r="G14" s="2">
-        <v>25</v>
-      </c>
-      <c r="H14" s="2">
-        <v>12</v>
-      </c>
-      <c r="I14" s="2">
-        <v>21</v>
-      </c>
-      <c r="J14" s="2">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-    </row>
-    <row r="16" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="7">
-        <v>0</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0</v>
-      </c>
-      <c r="D16" s="2">
-        <v>2</v>
-      </c>
-      <c r="E16" s="7">
-        <v>1</v>
-      </c>
-      <c r="F16" s="7">
-        <v>0</v>
-      </c>
-      <c r="G16" s="7">
-        <v>0</v>
-      </c>
-      <c r="H16" s="7">
-        <v>1</v>
-      </c>
-      <c r="I16" s="7">
-        <v>3</v>
-      </c>
-      <c r="J16" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6639,7 +6645,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="6">
         <v>45272</v>
@@ -6686,7 +6692,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -6727,7 +6733,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -6765,7 +6771,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -6797,7 +6803,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -6830,12 +6836,12 @@
     <row r="6" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8">
         <v>4</v>

--- a/2024/.个人/微习惯新世界.xlsx
+++ b/2024/.个人/微习惯新世界.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1.NoteLibrary\StudyNotes\2024\.个人\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C945D5-2EFE-4A58-ACD0-BAB60BE6212E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C23C3EE-99DD-46D1-9D23-ACD73CA1C377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -247,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -278,9 +278,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -435,35 +432,38 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>全部图表!$C$1:$K$1</c:f>
+              <c:f>全部图表!$B$1:$K$1</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>45301</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>45300</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>45299</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>45298</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>45297</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>45296</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>45295</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>45294</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>45293</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>45292</c:v>
                 </c:pt>
               </c:numCache>
@@ -471,35 +471,38 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>全部图表!$C$2:$K$2</c:f>
+              <c:f>全部图表!$B$2:$K$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>162.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>162.9</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>163.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>162.9</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>164</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>164.8</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>164.8</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>164.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>164.8</c:v>
                 </c:pt>
               </c:numCache>
@@ -788,35 +791,38 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>全部图表!$C$1:$K$1</c:f>
+              <c:f>全部图表!$B$1:$K$1</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>45301</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>45300</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>45299</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>45298</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>45297</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>45296</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>45295</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>45294</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>45293</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>45292</c:v>
                 </c:pt>
               </c:numCache>
@@ -824,35 +830,38 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>全部图表!$C$3:$K$3</c:f>
+              <c:f>全部图表!$B$3:$K$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>200</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>200</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
@@ -1206,35 +1215,38 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>全部图表!$C$1:$K$1</c:f>
+              <c:f>全部图表!$B$1:$K$1</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>45301</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>45300</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>45299</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>45298</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>45297</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>45296</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>45295</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>45294</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>45293</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>45292</c:v>
                 </c:pt>
               </c:numCache>
@@ -1242,15 +1254,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>全部图表!$C$6:$K$6</c:f>
+              <c:f>全部图表!$B$6:$K$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1271,6 +1283,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1378,35 +1393,38 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>全部图表!$C$1:$K$1</c:f>
+              <c:f>全部图表!$B$1:$K$1</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>45301</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>45300</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>45299</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>45298</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>45297</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>45296</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>45295</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>45294</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>45293</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>45292</c:v>
                 </c:pt>
               </c:numCache>
@@ -1414,15 +1432,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>全部图表!$C$7:$K$7</c:f>
+              <c:f>全部图表!$B$7:$K$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1443,6 +1461,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1618,6 +1639,735 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>全部图表!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>英语📕</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+                <a:srgbClr val="FFC000"/>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent6">
+                          <a:lumMod val="60000"/>
+                          <a:lumOff val="40000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>全部图表!$B$1:$K$1</c:f>
+              <c:numCache>
+                <c:formatCode>m"月"d"日"</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>45301</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45299</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45298</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45297</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45296</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45295</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45294</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45293</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45292</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>全部图表!$B$9:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2FAA-4745-ABCE-B2571F73C154}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1"/>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="lt1">
+                      <a:alpha val="0"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
+        <c:smooth val="0"/>
+        <c:axId val="663097720"/>
+        <c:axId val="663099880"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="663097720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m&quot;月&quot;d&quot;日&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="30" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="663099880"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="663099880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="663097720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="accent2">
+        <a:lumMod val="60000"/>
+        <a:lumOff val="40000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>全部图表!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>固定练习</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="bg1"/>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent6">
+                          <a:lumMod val="60000"/>
+                          <a:lumOff val="40000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>全部图表!$B$1:$K$1</c:f>
+              <c:numCache>
+                <c:formatCode>m"月"d"日"</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>45301</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45299</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45298</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45297</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45296</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45295</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45294</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45293</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45292</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>全部图表!$B$11:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E9C4-43DA-AC3B-F6144A91647E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1"/>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="lt1">
+                      <a:alpha val="0"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
+        <c:smooth val="0"/>
+        <c:axId val="663097720"/>
+        <c:axId val="663099880"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="663097720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m&quot;月&quot;d&quot;日&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="30" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="663099880"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="663099880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="663097720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="accent2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -3367,6 +4117,80 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4943,6 +5767,1032 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="238">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" spc="30" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+          <a:schemeClr val="phClr"/>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="14"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="35000"/>
+          <a:lumOff val="65000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="lt1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="25400">
+          <a:schemeClr val="lt1"/>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:tint val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1500" b="1" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="238">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" spc="30" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+          <a:schemeClr val="phClr"/>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="14"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="35000"/>
+          <a:lumOff val="65000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="lt1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="25400">
+          <a:schemeClr val="lt1"/>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:tint val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1500" b="1" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5550,6 +7400,82 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC0ED6B6-46E9-4722-8003-5B4F001CD49D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99DD711F-8160-4823-97B0-FA67845AF003}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6167,8 +8093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46AAD2A0-53C1-4B51-8443-D48BC613435D}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="R42" sqref="R42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6215,7 +8141,9 @@
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="1">
+        <v>162.4</v>
+      </c>
       <c r="C2" s="1">
         <v>162.9</v>
       </c>
@@ -6248,7 +8176,9 @@
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1">
+        <v>50</v>
+      </c>
       <c r="C3" s="1">
         <v>30</v>
       </c>
@@ -6281,7 +8211,9 @@
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1">
+        <v>17</v>
+      </c>
       <c r="C4" s="1">
         <v>8.5</v>
       </c>
@@ -6329,7 +8261,9 @@
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="1"/>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
       <c r="C6" s="1">
         <v>60</v>
       </c>
@@ -6362,7 +8296,9 @@
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="1"/>
+      <c r="B7" s="1">
+        <v>40</v>
+      </c>
       <c r="C7" s="1">
         <v>200</v>
       </c>
@@ -6408,7 +8344,9 @@
       <c r="A9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="7"/>
+      <c r="B9" s="7">
+        <v>100</v>
+      </c>
       <c r="C9" s="7">
         <v>40</v>
       </c>
@@ -6454,7 +8392,9 @@
       <c r="A11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="7"/>
+      <c r="B11" s="7">
+        <v>16</v>
+      </c>
       <c r="C11" s="7">
         <v>25</v>
       </c>
@@ -6500,7 +8440,9 @@
       <c r="A13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2">
+        <v>31</v>
+      </c>
       <c r="C13" s="2">
         <v>12</v>
       </c>
@@ -6546,7 +8488,9 @@
       <c r="A15" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="7"/>
+      <c r="B15" s="7">
+        <v>3</v>
+      </c>
       <c r="C15" s="7">
         <v>0</v>
       </c>
@@ -6577,7 +8521,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="12"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
@@ -6592,7 +8536,9 @@
       <c r="A17" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="12"/>
+      <c r="B17" s="11">
+        <v>6</v>
+      </c>
       <c r="C17">
         <v>1</v>
       </c>

--- a/2024/.个人/微习惯新世界.xlsx
+++ b/2024/.个人/微习惯新世界.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1.NoteLibrary\StudyNotes\2024\.个人\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C23C3EE-99DD-46D1-9D23-ACD73CA1C377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6AC0F9D-8DE9-4740-AEE5-0B92D194A022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="33">
   <si>
     <t>微习惯💎</t>
   </si>
@@ -168,7 +168,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFFC000"/>
+      <color rgb="FF0070C0"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -274,10 +274,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -432,38 +432,44 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>全部图表!$B$1:$K$1</c:f>
+              <c:f>全部图表!$B$1:$M$1</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>45303</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45302</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>45301</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>45300</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>45299</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>45298</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>45297</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>45296</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>45295</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>45294</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>45293</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>45292</c:v>
                 </c:pt>
               </c:numCache>
@@ -471,38 +477,44 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>全部图表!$B$2:$K$2</c:f>
+              <c:f>全部图表!$B$2:$M$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>161.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>160.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>162.4</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>162.9</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>163.5</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>161</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>161</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>162.9</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>164</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>164.8</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>164.8</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>164.8</c:v>
                 </c:pt>
               </c:numCache>
@@ -791,38 +803,44 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>全部图表!$B$1:$K$1</c:f>
+              <c:f>全部图表!$B$1:$M$1</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>45303</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45302</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>45301</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>45300</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>45299</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>45298</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>45297</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>45296</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>45295</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>45294</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>45293</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>45292</c:v>
                 </c:pt>
               </c:numCache>
@@ -830,30 +848,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>全部图表!$B$3:$K$3</c:f>
+              <c:f>全部图表!$B$3:$M$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>30</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -862,6 +880,12 @@
                   <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
@@ -1215,38 +1239,44 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>全部图表!$B$1:$K$1</c:f>
+              <c:f>全部图表!$B$1:$M$1</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>45303</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45302</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>45301</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>45300</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>45299</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>45298</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>45297</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>45296</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>45295</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>45294</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>45293</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>45292</c:v>
                 </c:pt>
               </c:numCache>
@@ -1254,21 +1284,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>全部图表!$B$6:$K$6</c:f>
+              <c:f>全部图表!$B$6:$M$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1286,6 +1316,12 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1393,38 +1429,44 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>全部图表!$B$1:$K$1</c:f>
+              <c:f>全部图表!$B$1:$M$1</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>45303</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45302</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>45301</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>45300</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>45299</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>45298</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>45297</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>45296</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>45295</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>45294</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>45293</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>45292</c:v>
                 </c:pt>
               </c:numCache>
@@ -1432,21 +1474,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>全部图表!$B$7:$K$7</c:f>
+              <c:f>全部图表!$B$7:$M$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1464,6 +1506,12 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1773,38 +1821,44 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>全部图表!$B$1:$K$1</c:f>
+              <c:f>全部图表!$B$1:$M$1</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>45303</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45302</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>45301</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>45300</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>45299</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>45298</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>45297</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>45296</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>45295</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>45294</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>45293</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>45292</c:v>
                 </c:pt>
               </c:numCache>
@@ -1812,38 +1866,44 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>全部图表!$B$9:$K$9</c:f>
+              <c:f>全部图表!$B$9:$M$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>170</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>90</c:v>
                 </c:pt>
               </c:numCache>
@@ -2137,38 +2197,44 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>全部图表!$B$1:$K$1</c:f>
+              <c:f>全部图表!$B$1:$M$1</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>45303</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45302</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>45301</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>45300</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>45299</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>45298</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>45297</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>45296</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>45295</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>45294</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>45293</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>45292</c:v>
                 </c:pt>
               </c:numCache>
@@ -2176,30 +2242,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>全部图表!$B$11:$K$11</c:f>
+              <c:f>全部图表!$B$11:$M$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>10</c:v>
@@ -2208,6 +2274,12 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
@@ -7305,7 +7377,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
@@ -7335,13 +7407,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>83820</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
@@ -7371,13 +7443,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>60960</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
@@ -7413,7 +7485,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
@@ -7445,13 +7517,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>220980</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
@@ -7788,19 +7860,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13AD3505-AB6F-47A4-83BE-C57C66D74A34}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.88671875" customWidth="1"/>
-    <col min="2" max="11" width="10.77734375" customWidth="1"/>
+    <col min="2" max="14" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -7832,8 +7904,17 @@
       <c r="K1" s="5">
         <v>45300</v>
       </c>
+      <c r="L1" s="5">
+        <v>45301</v>
+      </c>
+      <c r="M1" s="5">
+        <v>45302</v>
+      </c>
+      <c r="N1" s="5">
+        <v>45303</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -7859,14 +7940,23 @@
       <c r="I2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="11" t="s">
         <v>4</v>
       </c>
+      <c r="L2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -7892,12 +7982,19 @@
       <c r="I3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="9" t="s">
+      <c r="J3" s="11"/>
+      <c r="K3" s="11" t="s">
         <v>4</v>
       </c>
+      <c r="L3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="9"/>
     </row>
-    <row r="4" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -7923,12 +8020,21 @@
       <c r="I4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="4"/>
+      <c r="K4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -7954,12 +8060,21 @@
       <c r="I5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="4"/>
+      <c r="K5" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -7985,12 +8100,21 @@
       <c r="I6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="4"/>
+      <c r="K6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
@@ -8016,12 +8140,21 @@
       <c r="I7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="4"/>
+      <c r="K7" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="N7" s="4"/>
     </row>
-    <row r="8" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
@@ -8047,12 +8180,21 @@
       <c r="I8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K8" s="4"/>
+      <c r="K8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -8066,7 +8208,7 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="4" t="s">
         <v>2</v>
       </c>
@@ -8091,111 +8233,123 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46AAD2A0-53C1-4B51-8443-D48BC613435D}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="R42" sqref="R42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="16" width="10.77734375" customWidth="1"/>
+    <col min="2" max="18" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="3">
+        <v>45303</v>
+      </c>
+      <c r="C1" s="3">
+        <v>45302</v>
+      </c>
+      <c r="D1" s="3">
         <v>45301</v>
       </c>
-      <c r="C1" s="3">
+      <c r="E1" s="3">
         <v>45300</v>
       </c>
-      <c r="D1" s="3">
+      <c r="F1" s="3">
         <v>45299</v>
       </c>
-      <c r="E1" s="3">
+      <c r="G1" s="3">
         <v>45298</v>
       </c>
-      <c r="F1" s="3">
+      <c r="H1" s="3">
         <v>45297</v>
       </c>
-      <c r="G1" s="3">
+      <c r="I1" s="3">
         <v>45296</v>
       </c>
-      <c r="H1" s="3">
+      <c r="J1" s="3">
         <v>45295</v>
       </c>
-      <c r="I1" s="3">
+      <c r="K1" s="3">
         <v>45294</v>
       </c>
-      <c r="J1" s="3">
+      <c r="L1" s="3">
         <v>45293</v>
       </c>
-      <c r="K1" s="3">
+      <c r="M1" s="3">
         <v>45292</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="1">
+        <v>161.19999999999999</v>
+      </c>
+      <c r="C2" s="1">
+        <v>160.4</v>
+      </c>
+      <c r="D2" s="1">
         <v>162.4</v>
       </c>
-      <c r="C2" s="1">
+      <c r="E2" s="1">
         <v>162.9</v>
       </c>
-      <c r="D2" s="4">
+      <c r="F2" s="4">
         <v>163.5</v>
       </c>
-      <c r="E2" s="4">
+      <c r="G2" s="4">
         <v>161</v>
       </c>
-      <c r="F2" s="1">
+      <c r="H2" s="1">
         <v>161</v>
       </c>
-      <c r="G2" s="1">
+      <c r="I2" s="1">
         <v>162.9</v>
       </c>
-      <c r="H2" s="1">
+      <c r="J2" s="1">
         <v>164</v>
-      </c>
-      <c r="I2" s="1">
-        <v>164.8</v>
-      </c>
-      <c r="J2" s="1">
-        <v>164.8</v>
       </c>
       <c r="K2" s="1">
         <v>164.8</v>
       </c>
+      <c r="L2" s="1">
+        <v>164.8</v>
+      </c>
+      <c r="M2" s="1">
+        <v>164.8</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
         <v>50</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
+        <v>50</v>
+      </c>
+      <c r="E3" s="1">
         <v>30</v>
       </c>
-      <c r="D3" s="4">
+      <c r="F3" s="4">
         <v>0</v>
       </c>
-      <c r="E3" s="4">
+      <c r="G3" s="4">
         <v>30</v>
       </c>
-      <c r="F3" s="1">
+      <c r="H3" s="1">
         <v>100</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>200</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
@@ -8204,60 +8358,78 @@
         <v>200</v>
       </c>
       <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>200</v>
+      </c>
+      <c r="M3" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1">
         <v>8.5</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="1">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="F4" s="4">
         <v>0</v>
       </c>
-      <c r="E4" s="4">
+      <c r="G4" s="4">
         <v>0</v>
       </c>
-      <c r="F4" s="1">
+      <c r="H4" s="1">
         <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>17</v>
-      </c>
-      <c r="H4" s="1">
-        <v>8.5</v>
       </c>
       <c r="I4" s="1">
         <v>17</v>
       </c>
       <c r="J4" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="K4" s="1">
+        <v>17</v>
+      </c>
+      <c r="L4" s="1">
         <v>0</v>
       </c>
-      <c r="K4" s="1">
+      <c r="M4" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -8265,15 +8437,15 @@
         <v>0</v>
       </c>
       <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
         <v>60</v>
       </c>
-      <c r="D6" s="4">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
+      <c r="F6" s="4">
         <v>0</v>
       </c>
       <c r="G6" s="1">
@@ -8291,24 +8463,30 @@
       <c r="K6" s="1">
         <v>0</v>
       </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
         <v>40</v>
       </c>
-      <c r="C7" s="1">
+      <c r="E7" s="1">
         <v>200</v>
       </c>
-      <c r="D7" s="4">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
+      <c r="F7" s="4">
         <v>0</v>
       </c>
       <c r="G7" s="1">
@@ -8326,92 +8504,108 @@
       <c r="K7" s="1">
         <v>0</v>
       </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
     </row>
-    <row r="9" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="7">
+        <v>0</v>
+      </c>
+      <c r="C9" s="7">
+        <v>10</v>
+      </c>
+      <c r="D9" s="7">
         <v>100</v>
       </c>
-      <c r="C9" s="7">
+      <c r="E9" s="7">
         <v>40</v>
       </c>
-      <c r="D9" s="2">
+      <c r="F9" s="2">
         <v>10</v>
       </c>
-      <c r="E9" s="2">
+      <c r="G9" s="2">
         <v>10</v>
       </c>
-      <c r="F9" s="7">
+      <c r="H9" s="7">
         <v>10</v>
       </c>
-      <c r="G9" s="7">
+      <c r="I9" s="7">
         <v>100</v>
       </c>
-      <c r="H9" s="7">
+      <c r="J9" s="7">
         <v>60</v>
       </c>
-      <c r="I9" s="7">
+      <c r="K9" s="7">
         <v>10</v>
       </c>
-      <c r="J9" s="7">
+      <c r="L9" s="7">
         <v>170</v>
       </c>
-      <c r="K9" s="7">
+      <c r="M9" s="7">
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
     </row>
-    <row r="11" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B11" s="7">
+        <v>0</v>
+      </c>
+      <c r="C11" s="7">
+        <v>10</v>
+      </c>
+      <c r="D11" s="7">
         <v>16</v>
       </c>
-      <c r="C11" s="7">
+      <c r="E11" s="7">
         <v>25</v>
       </c>
-      <c r="D11" s="2">
+      <c r="F11" s="2">
         <v>0</v>
       </c>
-      <c r="E11" s="2">
+      <c r="G11" s="2">
         <v>5</v>
       </c>
-      <c r="F11" s="7">
+      <c r="H11" s="7">
         <v>30</v>
-      </c>
-      <c r="G11" s="7">
-        <v>10</v>
-      </c>
-      <c r="H11" s="7">
-        <v>10</v>
       </c>
       <c r="I11" s="7">
         <v>10</v>
@@ -8420,130 +8614,154 @@
         <v>10</v>
       </c>
       <c r="K11" s="7">
+        <v>10</v>
+      </c>
+      <c r="L11" s="7">
+        <v>10</v>
+      </c>
+      <c r="M11" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
     </row>
-    <row r="13" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="2">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2">
+        <v>45</v>
+      </c>
+      <c r="D13" s="2">
         <v>31</v>
       </c>
-      <c r="C13" s="2">
+      <c r="E13" s="2">
         <v>12</v>
       </c>
-      <c r="D13" s="2">
+      <c r="F13" s="2">
         <v>84</v>
       </c>
-      <c r="E13" s="2">
+      <c r="G13" s="2">
         <v>1</v>
       </c>
-      <c r="F13" s="2">
+      <c r="H13" s="2">
         <v>43</v>
       </c>
-      <c r="G13" s="2">
+      <c r="I13" s="2">
         <v>14</v>
       </c>
-      <c r="H13" s="2">
+      <c r="J13" s="2">
         <v>25</v>
       </c>
-      <c r="I13" s="2">
+      <c r="K13" s="2">
         <v>12</v>
       </c>
-      <c r="J13" s="2">
+      <c r="L13" s="2">
         <v>21</v>
       </c>
-      <c r="K13" s="2">
+      <c r="M13" s="2">
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
     </row>
-    <row r="15" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B15" s="7">
+        <v>0</v>
+      </c>
+      <c r="C15" s="7">
+        <v>9</v>
+      </c>
+      <c r="D15" s="7">
         <v>3</v>
       </c>
-      <c r="C15" s="7">
+      <c r="E15" s="7">
         <v>0</v>
       </c>
-      <c r="D15" s="2">
+      <c r="F15" s="2">
         <v>0</v>
       </c>
-      <c r="E15" s="2">
+      <c r="G15" s="2">
         <v>2</v>
       </c>
-      <c r="F15" s="7">
+      <c r="H15" s="7">
         <v>1</v>
       </c>
-      <c r="G15" s="7">
+      <c r="I15" s="7">
         <v>0</v>
       </c>
-      <c r="H15" s="7">
+      <c r="J15" s="7">
         <v>0</v>
       </c>
-      <c r="I15" s="7">
+      <c r="K15" s="7">
         <v>1</v>
       </c>
-      <c r="J15" s="7">
+      <c r="L15" s="7">
         <v>3</v>
       </c>
-      <c r="K15" s="7">
+      <c r="M15" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="10">
+        <v>0</v>
+      </c>
+      <c r="C17" s="10">
+        <v>1</v>
+      </c>
+      <c r="D17" s="10">
         <v>6</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -8566,10 +8784,18 @@
       <c r="K17">
         <v>1</v>
       </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/2024/.个人/微习惯新世界.xlsx
+++ b/2024/.个人/微习惯新世界.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1.NoteLibrary\StudyNotes\2024\.个人\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6AC0F9D-8DE9-4740-AEE5-0B92D194A022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB402C8-1259-4AF4-8F17-1FFCAE31F8D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="微习惯💎" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="33">
   <si>
     <t>微习惯💎</t>
   </si>
@@ -247,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -278,6 +278,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -432,7 +435,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>全部图表!$B$1:$M$1</c:f>
+              <c:f>全部图表!$C$1:$N$1</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
                 <c:ptCount val="12"/>
@@ -477,7 +480,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>全部图表!$B$2:$M$2</c:f>
+              <c:f>全部图表!$C$2:$N$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -803,7 +806,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>全部图表!$B$1:$M$1</c:f>
+              <c:f>全部图表!$C$1:$N$1</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
                 <c:ptCount val="12"/>
@@ -848,12 +851,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>全部图表!$B$3:$M$3</c:f>
+              <c:f>全部图表!$C$3:$N$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>50</c:v>
@@ -1239,7 +1242,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>全部图表!$B$1:$M$1</c:f>
+              <c:f>全部图表!$C$1:$N$1</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1284,7 +1287,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>全部图表!$B$6:$M$6</c:f>
+              <c:f>全部图表!$C$6:$N$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1429,7 +1432,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>全部图表!$B$1:$M$1</c:f>
+              <c:f>全部图表!$C$1:$N$1</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1474,7 +1477,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>全部图表!$B$7:$M$7</c:f>
+              <c:f>全部图表!$C$7:$N$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1821,7 +1824,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>全部图表!$B$1:$M$1</c:f>
+              <c:f>全部图表!$C$1:$N$1</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1866,12 +1869,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>全部图表!$B$9:$M$9</c:f>
+              <c:f>全部图表!$C$9:$N$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>10</c:v>
@@ -2197,7 +2200,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>全部图表!$B$1:$M$1</c:f>
+              <c:f>全部图表!$C$1:$N$1</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2242,12 +2245,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>全部图表!$B$11:$M$11</c:f>
+              <c:f>全部图表!$C$11:$N$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>10</c:v>
@@ -7377,7 +7380,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
@@ -7407,13 +7410,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>83820</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
@@ -7443,13 +7446,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>60960</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
@@ -7485,7 +7488,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
@@ -7517,13 +7520,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>220980</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
@@ -7860,19 +7863,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13AD3505-AB6F-47A4-83BE-C57C66D74A34}">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.88671875" customWidth="1"/>
-    <col min="2" max="14" width="10.77734375" customWidth="1"/>
+    <col min="2" max="15" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -7910,11 +7913,14 @@
       <c r="M1" s="5">
         <v>45302</v>
       </c>
-      <c r="N1" s="5">
+      <c r="N1" s="12">
         <v>45303</v>
       </c>
+      <c r="O1" s="5">
+        <v>45303</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -7952,11 +7958,14 @@
       <c r="M2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="O2" s="9" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -7992,9 +8001,12 @@
       <c r="M3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="9"/>
+      <c r="N3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" s="9"/>
     </row>
-    <row r="4" spans="1:14" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -8032,9 +8044,12 @@
       <c r="M4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="4"/>
+      <c r="N4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" s="4"/>
     </row>
-    <row r="5" spans="1:14" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -8072,9 +8087,12 @@
       <c r="M5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="N5" s="4"/>
+      <c r="N5" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5" s="4"/>
     </row>
-    <row r="6" spans="1:14" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -8112,9 +8130,12 @@
       <c r="M6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="N6" s="4"/>
+      <c r="N6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="O6" s="4"/>
     </row>
-    <row r="7" spans="1:14" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
@@ -8152,9 +8173,12 @@
       <c r="M7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="N7" s="4"/>
+      <c r="N7" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="O7" s="4"/>
     </row>
-    <row r="8" spans="1:14" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
@@ -8192,9 +8216,12 @@
       <c r="M8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="N8" s="4"/>
+      <c r="N8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" s="4"/>
     </row>
-    <row r="9" spans="1:14" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -8208,7 +8235,7 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="1:14" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="4" t="s">
         <v>2</v>
       </c>
@@ -8233,91 +8260,92 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46AAD2A0-53C1-4B51-8443-D48BC613435D}">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="18" width="10.77734375" customWidth="1"/>
+    <col min="2" max="19" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="3">
+        <v>45304</v>
+      </c>
+      <c r="C1" s="3">
         <v>45303</v>
       </c>
-      <c r="C1" s="3">
+      <c r="D1" s="3">
         <v>45302</v>
       </c>
-      <c r="D1" s="3">
+      <c r="E1" s="3">
         <v>45301</v>
       </c>
-      <c r="E1" s="3">
+      <c r="F1" s="3">
         <v>45300</v>
       </c>
-      <c r="F1" s="3">
+      <c r="G1" s="3">
         <v>45299</v>
       </c>
-      <c r="G1" s="3">
+      <c r="H1" s="3">
         <v>45298</v>
       </c>
-      <c r="H1" s="3">
+      <c r="I1" s="3">
         <v>45297</v>
       </c>
-      <c r="I1" s="3">
+      <c r="J1" s="3">
         <v>45296</v>
       </c>
-      <c r="J1" s="3">
+      <c r="K1" s="3">
         <v>45295</v>
       </c>
-      <c r="K1" s="3">
+      <c r="L1" s="3">
         <v>45294</v>
       </c>
-      <c r="L1" s="3">
+      <c r="M1" s="3">
         <v>45293</v>
       </c>
-      <c r="M1" s="3">
+      <c r="N1" s="3">
         <v>45292</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1">
         <v>161.19999999999999</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>160.4</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>162.4</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>162.9</v>
       </c>
-      <c r="F2" s="4">
+      <c r="G2" s="4">
         <v>163.5</v>
       </c>
-      <c r="G2" s="4">
+      <c r="H2" s="4">
         <v>161</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>161</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>162.9</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K2" s="1">
         <v>164</v>
-      </c>
-      <c r="K2" s="1">
-        <v>164.8</v>
       </c>
       <c r="L2" s="1">
         <v>164.8</v>
@@ -8325,14 +8353,15 @@
       <c r="M2" s="1">
         <v>164.8</v>
       </c>
+      <c r="N2" s="1">
+        <v>164.8</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
+      <c r="B3" s="1"/>
       <c r="C3" s="1">
         <v>50</v>
       </c>
@@ -8340,34 +8369,37 @@
         <v>50</v>
       </c>
       <c r="E3" s="1">
+        <v>50</v>
+      </c>
+      <c r="F3" s="1">
         <v>30</v>
       </c>
-      <c r="F3" s="4">
+      <c r="G3" s="4">
         <v>0</v>
       </c>
-      <c r="G3" s="4">
+      <c r="H3" s="4">
         <v>30</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>100</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>0</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="1">
         <v>200</v>
       </c>
-      <c r="K3" s="1">
+      <c r="L3" s="1">
         <v>0</v>
       </c>
-      <c r="L3" s="1">
+      <c r="M3" s="1">
         <v>200</v>
       </c>
-      <c r="M3" s="1">
+      <c r="N3" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -8375,40 +8407,43 @@
         <v>0</v>
       </c>
       <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
         <v>8.5</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>17</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>8.5</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0</v>
       </c>
       <c r="G4" s="4">
         <v>0</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="4">
         <v>0</v>
       </c>
       <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
         <v>17</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <v>8.5</v>
       </c>
-      <c r="K4" s="1">
+      <c r="L4" s="1">
         <v>17</v>
-      </c>
-      <c r="L4" s="1">
-        <v>0</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
       </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -8418,18 +8453,21 @@
       <c r="C5" s="1">
         <v>0</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="4"/>
+      <c r="F5" s="1"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="1"/>
+      <c r="H5" s="4"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -8443,12 +8481,12 @@
         <v>0</v>
       </c>
       <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
         <v>60</v>
       </c>
-      <c r="F6" s="4">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
+      <c r="G6" s="4">
         <v>0</v>
       </c>
       <c r="H6" s="1">
@@ -8469,8 +8507,11 @@
       <c r="M6" s="1">
         <v>0</v>
       </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -8481,15 +8522,15 @@
         <v>0</v>
       </c>
       <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
         <v>40</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>200</v>
       </c>
-      <c r="F7" s="4">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
+      <c r="G7" s="4">
         <v>0</v>
       </c>
       <c r="H7" s="1">
@@ -8510,105 +8551,109 @@
       <c r="M7" s="1">
         <v>0</v>
       </c>
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
-      <c r="F8" s="2"/>
+      <c r="F8" s="7"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="7"/>
+      <c r="H8" s="2"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
     </row>
-    <row r="9" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="7">
-        <v>0</v>
-      </c>
+      <c r="B9" s="7"/>
       <c r="C9" s="7">
+        <v>20</v>
+      </c>
+      <c r="D9" s="7">
         <v>10</v>
       </c>
-      <c r="D9" s="7">
+      <c r="E9" s="7">
         <v>100</v>
       </c>
-      <c r="E9" s="7">
+      <c r="F9" s="7">
         <v>40</v>
-      </c>
-      <c r="F9" s="2">
-        <v>10</v>
       </c>
       <c r="G9" s="2">
         <v>10</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="2">
         <v>10</v>
       </c>
       <c r="I9" s="7">
+        <v>10</v>
+      </c>
+      <c r="J9" s="7">
         <v>100</v>
       </c>
-      <c r="J9" s="7">
+      <c r="K9" s="7">
         <v>60</v>
       </c>
-      <c r="K9" s="7">
+      <c r="L9" s="7">
         <v>10</v>
       </c>
-      <c r="L9" s="7">
+      <c r="M9" s="7">
         <v>170</v>
       </c>
-      <c r="M9" s="7">
+      <c r="N9" s="7">
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
-      <c r="F10" s="2"/>
+      <c r="F10" s="7"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="7"/>
+      <c r="H10" s="2"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
     </row>
-    <row r="11" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7">
+        <v>10</v>
+      </c>
+      <c r="E11" s="7">
+        <v>16</v>
+      </c>
+      <c r="F11" s="7">
+        <v>25</v>
+      </c>
+      <c r="G11" s="2">
         <v>0</v>
       </c>
-      <c r="C11" s="7">
-        <v>10</v>
-      </c>
-      <c r="D11" s="7">
-        <v>16</v>
-      </c>
-      <c r="E11" s="7">
-        <v>25</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2">
+      <c r="H11" s="2">
         <v>5</v>
       </c>
-      <c r="H11" s="7">
+      <c r="I11" s="7">
         <v>30</v>
-      </c>
-      <c r="I11" s="7">
-        <v>10</v>
       </c>
       <c r="J11" s="7">
         <v>10</v>
@@ -8620,81 +8665,87 @@
         <v>10</v>
       </c>
       <c r="M11" s="7">
+        <v>10</v>
+      </c>
+      <c r="N11" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="2"/>
+      <c r="F12" s="7"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="7"/>
+      <c r="H12" s="2"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
     </row>
-    <row r="13" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="2">
-        <v>0</v>
-      </c>
+      <c r="B13" s="2"/>
       <c r="C13" s="2">
+        <v>40</v>
+      </c>
+      <c r="D13" s="2">
         <v>45</v>
       </c>
-      <c r="D13" s="2">
+      <c r="E13" s="2">
         <v>31</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F13" s="2">
         <v>12</v>
       </c>
-      <c r="F13" s="2">
+      <c r="G13" s="2">
         <v>84</v>
       </c>
-      <c r="G13" s="2">
+      <c r="H13" s="2">
         <v>1</v>
       </c>
-      <c r="H13" s="2">
+      <c r="I13" s="2">
         <v>43</v>
       </c>
-      <c r="I13" s="2">
+      <c r="J13" s="2">
         <v>14</v>
       </c>
-      <c r="J13" s="2">
+      <c r="K13" s="2">
         <v>25</v>
       </c>
-      <c r="K13" s="2">
+      <c r="L13" s="2">
         <v>12</v>
       </c>
-      <c r="L13" s="2">
+      <c r="M13" s="2">
         <v>21</v>
       </c>
-      <c r="M13" s="2">
+      <c r="N13" s="2">
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
-      <c r="F14" s="2"/>
+      <c r="F14" s="7"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="7"/>
+      <c r="H14" s="2"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
     </row>
-    <row r="15" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>31</v>
       </c>
@@ -8702,40 +8753,43 @@
         <v>0</v>
       </c>
       <c r="C15" s="7">
+        <v>0</v>
+      </c>
+      <c r="D15" s="7">
         <v>9</v>
       </c>
-      <c r="D15" s="7">
+      <c r="E15" s="7">
         <v>3</v>
       </c>
-      <c r="E15" s="7">
+      <c r="F15" s="7">
         <v>0</v>
       </c>
-      <c r="F15" s="2">
+      <c r="G15" s="2">
         <v>0</v>
       </c>
-      <c r="G15" s="2">
+      <c r="H15" s="2">
         <v>2</v>
       </c>
-      <c r="H15" s="7">
+      <c r="I15" s="7">
         <v>1</v>
-      </c>
-      <c r="I15" s="7">
-        <v>0</v>
       </c>
       <c r="J15" s="7">
         <v>0</v>
       </c>
       <c r="K15" s="7">
+        <v>0</v>
+      </c>
+      <c r="L15" s="7">
         <v>1</v>
       </c>
-      <c r="L15" s="7">
+      <c r="M15" s="7">
         <v>3</v>
       </c>
-      <c r="M15" s="7">
+      <c r="N15" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -8749,22 +8803,21 @@
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="10">
-        <v>0</v>
-      </c>
+      <c r="B17" s="10"/>
       <c r="C17" s="10">
+        <v>3</v>
+      </c>
+      <c r="D17" s="10">
         <v>1</v>
       </c>
-      <c r="D17" s="10">
+      <c r="E17" s="10">
         <v>6</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -8790,12 +8843,16 @@
       <c r="M17">
         <v>1</v>
       </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/2024/.个人/微习惯新世界.xlsx
+++ b/2024/.个人/微习惯新世界.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1.NoteLibrary\StudyNotes\2024\.个人\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB402C8-1259-4AF4-8F17-1FFCAE31F8D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E42703-840C-46AB-97E8-DA23599F84B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="33">
   <si>
     <t>微习惯💎</t>
   </si>
@@ -247,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -278,9 +278,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -435,44 +432,47 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>全部图表!$C$1:$N$1</c:f>
+              <c:f>全部图表!$B$1:$N$1</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>45304</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>45303</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>45302</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>45301</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>45300</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>45299</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>45298</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>45297</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>45296</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>45295</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>45294</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>45293</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>45292</c:v>
                 </c:pt>
               </c:numCache>
@@ -480,44 +480,47 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>全部图表!$C$2:$N$2</c:f>
+              <c:f>全部图表!$B$2:$N$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>159.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>161.19999999999999</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>160.4</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>162.4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>162.9</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>163.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>162.9</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>164</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>164.8</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>164.8</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>164.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>164.8</c:v>
                 </c:pt>
               </c:numCache>
@@ -806,44 +809,47 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>全部图表!$C$1:$N$1</c:f>
+              <c:f>全部图表!$B$1:$N$1</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>45304</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>45303</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>45302</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>45301</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>45300</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>45299</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>45298</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>45297</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>45296</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>45295</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>45294</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>45293</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>45292</c:v>
                 </c:pt>
               </c:numCache>
@@ -851,12 +857,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>全部图表!$C$3:$N$3</c:f>
+              <c:f>全部图表!$B$3:$N$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>50</c:v>
@@ -865,30 +871,33 @@
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>200</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>200</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
@@ -1242,44 +1251,47 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>全部图表!$C$1:$N$1</c:f>
+              <c:f>全部图表!$B$1:$N$1</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>45304</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>45303</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>45302</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>45301</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>45300</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>45299</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>45298</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>45297</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>45296</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>45295</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>45294</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>45293</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>45292</c:v>
                 </c:pt>
               </c:numCache>
@@ -1287,12 +1299,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>全部图表!$C$6:$N$6</c:f>
+              <c:f>全部图表!$B$6:$N$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1301,10 +1313,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -1325,6 +1337,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1432,44 +1447,47 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>全部图表!$C$1:$N$1</c:f>
+              <c:f>全部图表!$B$1:$N$1</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>45304</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>45303</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>45302</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>45301</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>45300</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>45299</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>45298</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>45297</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>45296</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>45295</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>45294</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>45293</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>45292</c:v>
                 </c:pt>
               </c:numCache>
@@ -1477,24 +1495,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>全部图表!$C$7:$N$7</c:f>
+              <c:f>全部图表!$B$7:$N$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -1515,6 +1533,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1824,44 +1845,47 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>全部图表!$C$1:$N$1</c:f>
+              <c:f>全部图表!$B$1:$N$1</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>45304</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>45303</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>45302</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>45301</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>45300</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>45299</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>45298</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>45297</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>45296</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>45295</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>45294</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>45293</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>45292</c:v>
                 </c:pt>
               </c:numCache>
@@ -1869,24 +1893,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>全部图表!$C$9:$N$9</c:f>
+              <c:f>全部图表!$B$9:$N$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>10</c:v>
@@ -1895,18 +1919,21 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>170</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>90</c:v>
                 </c:pt>
               </c:numCache>
@@ -2200,44 +2227,47 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>全部图表!$C$1:$N$1</c:f>
+              <c:f>全部图表!$B$1:$N$1</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>45304</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>45303</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>45302</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>45301</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>45300</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>45299</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>45298</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>45297</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>45296</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>45295</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>45294</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>45293</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>45292</c:v>
                 </c:pt>
               </c:numCache>
@@ -2245,33 +2275,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>全部图表!$C$11:$N$11</c:f>
+              <c:f>全部图表!$B$11:$N$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>10</c:v>
@@ -2283,6 +2313,9 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
@@ -7380,7 +7413,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
@@ -7410,16 +7443,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7446,16 +7479,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>731520</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7484,14 +7517,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7520,16 +7553,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7866,7 +7899,7 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7913,11 +7946,11 @@
       <c r="M1" s="5">
         <v>45302</v>
       </c>
-      <c r="N1" s="12">
+      <c r="N1" s="5">
         <v>45303</v>
       </c>
       <c r="O1" s="5">
-        <v>45303</v>
+        <v>45304</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8004,7 +8037,9 @@
       <c r="N3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="9"/>
+      <c r="O3" s="9" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" spans="1:15" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
@@ -8047,7 +8082,9 @@
       <c r="N4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="O4" s="4"/>
+      <c r="O4" s="9" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:15" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
@@ -8090,7 +8127,9 @@
       <c r="N5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="O5" s="4"/>
+      <c r="O5" s="9" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:15" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
@@ -8133,7 +8172,9 @@
       <c r="N6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="O6" s="4"/>
+      <c r="O6" s="9" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:15" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
@@ -8176,7 +8217,9 @@
       <c r="N7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="O7" s="4"/>
+      <c r="O7" s="9" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="8" spans="1:15" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
@@ -8219,7 +8262,9 @@
       <c r="N8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="O8" s="4"/>
+      <c r="O8" s="9" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="1:15" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
@@ -8262,8 +8307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46AAD2A0-53C1-4B51-8443-D48BC613435D}">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="J92" sqref="J92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8319,7 +8364,9 @@
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="1">
+        <v>159.9</v>
+      </c>
       <c r="C2" s="1">
         <v>161.19999999999999</v>
       </c>
@@ -8361,7 +8408,9 @@
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
       <c r="C3" s="1">
         <v>50</v>
       </c>
@@ -8472,7 +8521,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -8516,7 +8565,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -8575,7 +8624,9 @@
       <c r="A9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="7"/>
+      <c r="B9" s="7">
+        <v>50</v>
+      </c>
       <c r="C9" s="7">
         <v>20</v>
       </c>
@@ -8633,7 +8684,9 @@
       <c r="A11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="7"/>
+      <c r="B11" s="7">
+        <v>14</v>
+      </c>
       <c r="C11" s="7">
         <v>30</v>
       </c>
@@ -8691,7 +8744,9 @@
       <c r="A13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2">
+        <v>29</v>
+      </c>
       <c r="C13" s="2">
         <v>40</v>
       </c>
@@ -8750,7 +8805,7 @@
         <v>31</v>
       </c>
       <c r="B15" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" s="7">
         <v>0</v>
@@ -8809,7 +8864,9 @@
       <c r="A17" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="10"/>
+      <c r="B17" s="10">
+        <v>1</v>
+      </c>
       <c r="C17" s="10">
         <v>3</v>
       </c>

--- a/2024/.个人/微习惯新世界.xlsx
+++ b/2024/.个人/微习惯新世界.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1.NoteLibrary\StudyNotes\2024\.个人\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E42703-840C-46AB-97E8-DA23599F84B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDDDA297-1611-4639-A032-455A2451D368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="33">
   <si>
     <t>微习惯💎</t>
   </si>
@@ -137,7 +137,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,6 +169,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -247,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -278,6 +293,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -432,47 +453,50 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>全部图表!$B$1:$N$1</c:f>
+              <c:f>全部图表!$B$1:$O$1</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>45305</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>45304</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>45303</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>45302</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>45301</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>45300</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>45299</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>45298</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>45297</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>45296</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>45295</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>45294</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>45293</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>45292</c:v>
                 </c:pt>
               </c:numCache>
@@ -480,47 +504,50 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>全部图表!$B$2:$N$2</c:f>
+              <c:f>全部图表!$B$2:$O$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>159.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>159.9</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>161.19999999999999</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>160.4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>162.4</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>162.9</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>163.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>162.9</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>164</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>164.8</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>164.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>164.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>164.8</c:v>
                 </c:pt>
               </c:numCache>
@@ -809,7 +836,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>全部图表!$B$1:$N$1</c:f>
+              <c:f>全部图表!$C$1:$O$1</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
                 <c:ptCount val="13"/>
@@ -857,7 +884,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>全部图表!$B$3:$N$3</c:f>
+              <c:f>全部图表!$C$3:$O$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1251,47 +1278,50 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>全部图表!$B$1:$N$1</c:f>
+              <c:f>全部图表!$B$1:$O$1</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>45305</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>45304</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>45303</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>45302</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>45301</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>45300</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>45299</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>45298</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>45297</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>45296</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>45295</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>45294</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>45293</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>45292</c:v>
                 </c:pt>
               </c:numCache>
@@ -1299,15 +1329,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>全部图表!$B$6:$N$6</c:f>
+              <c:f>全部图表!$B$6:$O$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1316,10 +1346,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -1340,6 +1370,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1447,47 +1480,50 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>全部图表!$B$1:$N$1</c:f>
+              <c:f>全部图表!$B$1:$O$1</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>45305</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>45304</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>45303</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>45302</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>45301</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>45300</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>45299</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>45298</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>45297</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>45296</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>45295</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>45294</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>45293</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>45292</c:v>
                 </c:pt>
               </c:numCache>
@@ -1495,27 +1531,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>全部图表!$B$7:$N$7</c:f>
+              <c:f>全部图表!$B$7:$O$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -1536,6 +1572,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1845,47 +1884,50 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>全部图表!$B$1:$N$1</c:f>
+              <c:f>全部图表!$B$1:$O$1</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>45305</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>45304</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>45303</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>45302</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>45301</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>45300</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>45299</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>45298</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>45297</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>45296</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>45295</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>45294</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>45293</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>45292</c:v>
                 </c:pt>
               </c:numCache>
@@ -1893,27 +1935,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>全部图表!$B$9:$N$9</c:f>
+              <c:f>全部图表!$B$9:$O$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>10</c:v>
@@ -1922,18 +1964,21 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>170</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>90</c:v>
                 </c:pt>
               </c:numCache>
@@ -2227,47 +2272,50 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>全部图表!$B$1:$N$1</c:f>
+              <c:f>全部图表!$B$1:$O$1</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>45305</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>45304</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>45303</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>45302</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>45301</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>45300</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>45299</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>45298</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>45297</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>45296</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>45295</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>45294</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>45293</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>45292</c:v>
                 </c:pt>
               </c:numCache>
@@ -2275,36 +2323,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>全部图表!$B$11:$N$11</c:f>
+              <c:f>全部图表!$B$11:$O$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>10</c:v>
@@ -2316,6 +2364,9 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
@@ -7413,7 +7464,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
@@ -7449,7 +7500,7 @@
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
@@ -7485,7 +7536,7 @@
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>731520</xdr:colOff>
       <xdr:row>63</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
@@ -7521,7 +7572,7 @@
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
       <xdr:row>89</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
@@ -7559,7 +7610,7 @@
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>77</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -7896,19 +7947,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13AD3505-AB6F-47A4-83BE-C57C66D74A34}">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.88671875" customWidth="1"/>
-    <col min="2" max="15" width="10.77734375" customWidth="1"/>
+    <col min="2" max="16" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -7952,8 +8003,11 @@
       <c r="O1" s="5">
         <v>45304</v>
       </c>
+      <c r="P1" s="5">
+        <v>45304</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -7994,11 +8048,14 @@
       <c r="N2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -8037,11 +8094,14 @@
       <c r="N3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="P3" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -8082,11 +8142,14 @@
       <c r="N4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="O4" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="P4" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -8127,11 +8190,14 @@
       <c r="N5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="O5" s="9" t="s">
+      <c r="O5" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="P5" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -8172,11 +8238,14 @@
       <c r="N6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="O6" s="9" t="s">
+      <c r="O6" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="P6" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
@@ -8217,11 +8286,14 @@
       <c r="N7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="O7" s="9" t="s">
+      <c r="O7" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="P7" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
@@ -8262,11 +8334,14 @@
       <c r="N8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="O8" s="9" t="s">
+      <c r="O8" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="P8" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -8280,7 +8355,7 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="1:15" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="4" t="s">
         <v>2</v>
       </c>
@@ -8305,97 +8380,100 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46AAD2A0-53C1-4B51-8443-D48BC613435D}">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="J92" sqref="J92"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="19" width="10.77734375" customWidth="1"/>
+    <col min="2" max="20" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="3">
+        <v>45305</v>
+      </c>
+      <c r="C1" s="3">
         <v>45304</v>
       </c>
-      <c r="C1" s="3">
+      <c r="D1" s="3">
         <v>45303</v>
       </c>
-      <c r="D1" s="3">
+      <c r="E1" s="3">
         <v>45302</v>
       </c>
-      <c r="E1" s="3">
+      <c r="F1" s="3">
         <v>45301</v>
       </c>
-      <c r="F1" s="3">
+      <c r="G1" s="3">
         <v>45300</v>
       </c>
-      <c r="G1" s="3">
+      <c r="H1" s="3">
         <v>45299</v>
       </c>
-      <c r="H1" s="3">
+      <c r="I1" s="3">
         <v>45298</v>
       </c>
-      <c r="I1" s="3">
+      <c r="J1" s="3">
         <v>45297</v>
       </c>
-      <c r="J1" s="3">
+      <c r="K1" s="3">
         <v>45296</v>
       </c>
-      <c r="K1" s="3">
+      <c r="L1" s="3">
         <v>45295</v>
       </c>
-      <c r="L1" s="3">
+      <c r="M1" s="3">
         <v>45294</v>
       </c>
-      <c r="M1" s="3">
+      <c r="N1" s="3">
         <v>45293</v>
       </c>
-      <c r="N1" s="3">
+      <c r="O1" s="3">
         <v>45292</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="1">
+        <v>159.80000000000001</v>
+      </c>
+      <c r="C2" s="1">
         <v>159.9</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>161.19999999999999</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>160.4</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>162.4</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>162.9</v>
       </c>
-      <c r="G2" s="4">
+      <c r="H2" s="4">
         <v>163.5</v>
       </c>
-      <c r="H2" s="4">
+      <c r="I2" s="4">
         <v>161</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>161</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K2" s="1">
         <v>162.9</v>
       </c>
-      <c r="K2" s="1">
+      <c r="L2" s="1">
         <v>164</v>
-      </c>
-      <c r="L2" s="1">
-        <v>164.8</v>
       </c>
       <c r="M2" s="1">
         <v>164.8</v>
@@ -8403,16 +8481,17 @@
       <c r="N2" s="1">
         <v>164.8</v>
       </c>
+      <c r="O2" s="1">
+        <v>164.8</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1">
         <v>0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>50</v>
       </c>
       <c r="D3" s="1">
         <v>50</v>
@@ -8421,110 +8500,115 @@
         <v>50</v>
       </c>
       <c r="F3" s="1">
+        <v>50</v>
+      </c>
+      <c r="G3" s="1">
         <v>30</v>
       </c>
-      <c r="G3" s="4">
+      <c r="H3" s="4">
         <v>0</v>
       </c>
-      <c r="H3" s="4">
+      <c r="I3" s="4">
         <v>30</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>100</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="1">
         <v>0</v>
       </c>
-      <c r="K3" s="1">
+      <c r="L3" s="1">
         <v>200</v>
       </c>
-      <c r="L3" s="1">
+      <c r="M3" s="1">
         <v>0</v>
       </c>
-      <c r="M3" s="1">
+      <c r="N3" s="1">
         <v>200</v>
       </c>
-      <c r="N3" s="1">
+      <c r="O3" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
+      <c r="B4" s="1"/>
       <c r="C4" s="1">
         <v>0</v>
       </c>
       <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
         <v>8.5</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>17</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>8.5</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0</v>
       </c>
       <c r="H4" s="4">
         <v>0</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="4">
         <v>0</v>
       </c>
       <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
         <v>17</v>
       </c>
-      <c r="K4" s="1">
+      <c r="L4" s="1">
         <v>8.5</v>
       </c>
-      <c r="L4" s="1">
+      <c r="M4" s="1">
         <v>17</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0</v>
       </c>
       <c r="N4" s="1">
         <v>0</v>
       </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
+      <c r="B5" s="1"/>
       <c r="C5" s="1">
         <v>0</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="4"/>
+      <c r="G5" s="1"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="1"/>
+      <c r="I5" s="4"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
         <v>120</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -8533,12 +8617,12 @@
         <v>0</v>
       </c>
       <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
         <v>60</v>
       </c>
-      <c r="G6" s="4">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
+      <c r="H6" s="4">
         <v>0</v>
       </c>
       <c r="I6" s="1">
@@ -8559,8 +8643,11 @@
       <c r="N6" s="1">
         <v>0</v>
       </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -8568,21 +8655,21 @@
         <v>50</v>
       </c>
       <c r="C7" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
       </c>
       <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
         <v>40</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>200</v>
       </c>
-      <c r="G7" s="4">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
+      <c r="H7" s="4">
         <v>0</v>
       </c>
       <c r="I7" s="1">
@@ -8603,113 +8690,121 @@
       <c r="N7" s="1">
         <v>0</v>
       </c>
+      <c r="O7" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="2"/>
+      <c r="G8" s="7"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="7"/>
+      <c r="I8" s="2"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
     </row>
-    <row r="9" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="7">
+        <v>20</v>
+      </c>
+      <c r="C9" s="7">
         <v>50</v>
       </c>
-      <c r="C9" s="7">
+      <c r="D9" s="7">
         <v>20</v>
       </c>
-      <c r="D9" s="7">
+      <c r="E9" s="7">
         <v>10</v>
       </c>
-      <c r="E9" s="7">
+      <c r="F9" s="7">
         <v>100</v>
       </c>
-      <c r="F9" s="7">
+      <c r="G9" s="7">
         <v>40</v>
-      </c>
-      <c r="G9" s="2">
-        <v>10</v>
       </c>
       <c r="H9" s="2">
         <v>10</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="2">
         <v>10</v>
       </c>
       <c r="J9" s="7">
+        <v>10</v>
+      </c>
+      <c r="K9" s="7">
         <v>100</v>
       </c>
-      <c r="K9" s="7">
+      <c r="L9" s="7">
         <v>60</v>
       </c>
-      <c r="L9" s="7">
+      <c r="M9" s="7">
         <v>10</v>
       </c>
-      <c r="M9" s="7">
+      <c r="N9" s="7">
         <v>170</v>
       </c>
-      <c r="N9" s="7">
+      <c r="O9" s="7">
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="2"/>
+      <c r="G10" s="7"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="7"/>
+      <c r="I10" s="2"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
     </row>
-    <row r="11" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B11" s="7">
+        <v>10</v>
+      </c>
+      <c r="C11" s="7">
         <v>14</v>
       </c>
-      <c r="C11" s="7">
+      <c r="D11" s="7">
         <v>30</v>
       </c>
-      <c r="D11" s="7">
+      <c r="E11" s="7">
         <v>10</v>
       </c>
-      <c r="E11" s="7">
+      <c r="F11" s="7">
         <v>16</v>
       </c>
-      <c r="F11" s="7">
+      <c r="G11" s="7">
         <v>25</v>
       </c>
-      <c r="G11" s="2">
+      <c r="H11" s="2">
         <v>0</v>
       </c>
-      <c r="H11" s="2">
+      <c r="I11" s="2">
         <v>5</v>
       </c>
-      <c r="I11" s="7">
+      <c r="J11" s="7">
         <v>30</v>
-      </c>
-      <c r="J11" s="7">
-        <v>10</v>
       </c>
       <c r="K11" s="7">
         <v>10</v>
@@ -8721,86 +8816,94 @@
         <v>10</v>
       </c>
       <c r="N11" s="7">
+        <v>10</v>
+      </c>
+      <c r="O11" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="2"/>
+      <c r="G12" s="7"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="7"/>
+      <c r="I12" s="2"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
     </row>
-    <row r="13" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="2">
+        <v>15</v>
+      </c>
+      <c r="C13" s="2">
         <v>29</v>
       </c>
-      <c r="C13" s="2">
+      <c r="D13" s="2">
         <v>40</v>
       </c>
-      <c r="D13" s="2">
+      <c r="E13" s="2">
         <v>45</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F13" s="2">
         <v>31</v>
       </c>
-      <c r="F13" s="2">
+      <c r="G13" s="2">
         <v>12</v>
       </c>
-      <c r="G13" s="2">
+      <c r="H13" s="2">
         <v>84</v>
       </c>
-      <c r="H13" s="2">
+      <c r="I13" s="2">
         <v>1</v>
       </c>
-      <c r="I13" s="2">
+      <c r="J13" s="2">
         <v>43</v>
       </c>
-      <c r="J13" s="2">
+      <c r="K13" s="2">
         <v>14</v>
       </c>
-      <c r="K13" s="2">
+      <c r="L13" s="2">
         <v>25</v>
       </c>
-      <c r="L13" s="2">
+      <c r="M13" s="2">
         <v>12</v>
       </c>
-      <c r="M13" s="2">
+      <c r="N13" s="2">
         <v>21</v>
       </c>
-      <c r="N13" s="2">
+      <c r="O13" s="2">
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="2"/>
+      <c r="G14" s="7"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="7"/>
+      <c r="I14" s="2"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
     </row>
-    <row r="15" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>31</v>
       </c>
@@ -8808,43 +8911,46 @@
         <v>1</v>
       </c>
       <c r="C15" s="7">
+        <v>1</v>
+      </c>
+      <c r="D15" s="7">
         <v>0</v>
       </c>
-      <c r="D15" s="7">
+      <c r="E15" s="7">
         <v>9</v>
       </c>
-      <c r="E15" s="7">
+      <c r="F15" s="7">
         <v>3</v>
       </c>
-      <c r="F15" s="7">
+      <c r="G15" s="7">
         <v>0</v>
       </c>
-      <c r="G15" s="2">
+      <c r="H15" s="2">
         <v>0</v>
       </c>
-      <c r="H15" s="2">
+      <c r="I15" s="2">
         <v>2</v>
       </c>
-      <c r="I15" s="7">
+      <c r="J15" s="7">
         <v>1</v>
-      </c>
-      <c r="J15" s="7">
-        <v>0</v>
       </c>
       <c r="K15" s="7">
         <v>0</v>
       </c>
       <c r="L15" s="7">
+        <v>0</v>
+      </c>
+      <c r="M15" s="7">
         <v>1</v>
       </c>
-      <c r="M15" s="7">
+      <c r="N15" s="7">
         <v>3</v>
       </c>
-      <c r="N15" s="7">
+      <c r="O15" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -8859,8 +8965,9 @@
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>32</v>
       </c>
@@ -8868,16 +8975,16 @@
         <v>1</v>
       </c>
       <c r="C17" s="10">
+        <v>1</v>
+      </c>
+      <c r="D17" s="10">
         <v>3</v>
       </c>
-      <c r="D17" s="10">
+      <c r="E17" s="10">
         <v>1</v>
       </c>
-      <c r="E17" s="10">
+      <c r="F17" s="10">
         <v>6</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -8903,13 +9010,17 @@
       <c r="N17">
         <v>1</v>
       </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/2024/.个人/微习惯新世界.xlsx
+++ b/2024/.个人/微习惯新世界.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1.NoteLibrary\StudyNotes\2024\.个人\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDDDA297-1611-4639-A032-455A2451D368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E705FB-90FA-441D-A8DF-F8B925AAA95E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="微习惯💎" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="33">
   <si>
     <t>微习惯💎</t>
   </si>
@@ -137,7 +137,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,14 +179,6 @@
       <color rgb="FFFFC000"/>
       <name val="等线"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFC000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -262,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -296,9 +288,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -453,7 +442,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>全部图表!$B$1:$O$1</c:f>
+              <c:f>全部图表!$C$1:$P$1</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
                 <c:ptCount val="14"/>
@@ -504,7 +493,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>全部图表!$B$2:$O$2</c:f>
+              <c:f>全部图表!$C$2:$P$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -836,7 +825,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>全部图表!$C$1:$O$1</c:f>
+              <c:f>全部图表!$D$1:$P$1</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
                 <c:ptCount val="13"/>
@@ -884,7 +873,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>全部图表!$C$3:$O$3</c:f>
+              <c:f>全部图表!$D$3:$P$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1278,7 +1267,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>全部图表!$B$1:$O$1</c:f>
+              <c:f>全部图表!$C$1:$P$1</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1329,7 +1318,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>全部图表!$B$6:$O$6</c:f>
+              <c:f>全部图表!$C$6:$P$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1480,7 +1469,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>全部图表!$B$1:$O$1</c:f>
+              <c:f>全部图表!$C$1:$P$1</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1531,7 +1520,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>全部图表!$B$7:$O$7</c:f>
+              <c:f>全部图表!$C$7:$P$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1884,7 +1873,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>全部图表!$B$1:$O$1</c:f>
+              <c:f>全部图表!$C$1:$P$1</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1935,7 +1924,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>全部图表!$B$9:$O$9</c:f>
+              <c:f>全部图表!$C$9:$P$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -2272,7 +2261,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>全部图表!$B$1:$O$1</c:f>
+              <c:f>全部图表!$C$1:$P$1</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
                 <c:ptCount val="14"/>
@@ -2323,7 +2312,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>全部图表!$B$11:$O$11</c:f>
+              <c:f>全部图表!$C$11:$P$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -7464,7 +7453,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
@@ -7500,7 +7489,7 @@
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
@@ -7536,7 +7525,7 @@
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>731520</xdr:colOff>
       <xdr:row>63</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
@@ -7572,7 +7561,7 @@
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
       <xdr:row>89</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
@@ -7610,7 +7599,7 @@
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>77</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -7947,19 +7936,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13AD3505-AB6F-47A4-83BE-C57C66D74A34}">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.88671875" customWidth="1"/>
-    <col min="2" max="16" width="10.77734375" customWidth="1"/>
+    <col min="2" max="18" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -8004,10 +7993,16 @@
         <v>45304</v>
       </c>
       <c r="P1" s="5">
-        <v>45304</v>
+        <v>45305</v>
+      </c>
+      <c r="Q1" s="5">
+        <v>45306</v>
+      </c>
+      <c r="R1" s="5">
+        <v>45307</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -8048,14 +8043,18 @@
       <c r="N2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="O2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" s="9"/>
     </row>
-    <row r="3" spans="1:16" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -8094,14 +8093,18 @@
       <c r="N3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="P3" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="O3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="R3" s="9"/>
     </row>
-    <row r="4" spans="1:16" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -8142,14 +8145,20 @@
       <c r="N4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="O4" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="P4" s="9" t="s">
+      <c r="O4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="R4" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -8190,14 +8199,18 @@
       <c r="N5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="O5" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="P5" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="O5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="R5" s="9"/>
     </row>
-    <row r="6" spans="1:16" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -8238,14 +8251,18 @@
       <c r="N6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="O6" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="P6" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="O6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="R6" s="9"/>
     </row>
-    <row r="7" spans="1:16" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
@@ -8286,14 +8303,18 @@
       <c r="N7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="O7" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="P7" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="O7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="R7" s="9"/>
     </row>
-    <row r="8" spans="1:16" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
@@ -8334,14 +8355,18 @@
       <c r="N8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="O8" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="P8" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="O8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="R8" s="9"/>
     </row>
-    <row r="9" spans="1:16" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -8355,7 +8380,7 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="1:16" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="4" t="s">
         <v>2</v>
       </c>
@@ -8380,103 +8405,106 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46AAD2A0-53C1-4B51-8443-D48BC613435D}">
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="20" width="10.77734375" customWidth="1"/>
+    <col min="2" max="21" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="3">
+        <v>45306</v>
+      </c>
+      <c r="C1" s="3">
         <v>45305</v>
       </c>
-      <c r="C1" s="3">
+      <c r="D1" s="3">
         <v>45304</v>
       </c>
-      <c r="D1" s="3">
+      <c r="E1" s="3">
         <v>45303</v>
       </c>
-      <c r="E1" s="3">
+      <c r="F1" s="3">
         <v>45302</v>
       </c>
-      <c r="F1" s="3">
+      <c r="G1" s="3">
         <v>45301</v>
       </c>
-      <c r="G1" s="3">
+      <c r="H1" s="3">
         <v>45300</v>
       </c>
-      <c r="H1" s="3">
+      <c r="I1" s="3">
         <v>45299</v>
       </c>
-      <c r="I1" s="3">
+      <c r="J1" s="3">
         <v>45298</v>
       </c>
-      <c r="J1" s="3">
+      <c r="K1" s="3">
         <v>45297</v>
       </c>
-      <c r="K1" s="3">
+      <c r="L1" s="3">
         <v>45296</v>
       </c>
-      <c r="L1" s="3">
+      <c r="M1" s="3">
         <v>45295</v>
       </c>
-      <c r="M1" s="3">
+      <c r="N1" s="3">
         <v>45294</v>
       </c>
-      <c r="N1" s="3">
+      <c r="O1" s="3">
         <v>45293</v>
       </c>
-      <c r="O1" s="3">
+      <c r="P1" s="3">
         <v>45292</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="1">
+        <v>159.6</v>
+      </c>
+      <c r="C2" s="1">
         <v>159.80000000000001</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>159.9</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>161.19999999999999</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>160.4</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>162.4</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>162.9</v>
       </c>
-      <c r="H2" s="4">
+      <c r="I2" s="4">
         <v>163.5</v>
       </c>
-      <c r="I2" s="4">
+      <c r="J2" s="4">
         <v>161</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K2" s="1">
         <v>161</v>
       </c>
-      <c r="K2" s="1">
+      <c r="L2" s="1">
         <v>162.9</v>
       </c>
-      <c r="L2" s="1">
+      <c r="M2" s="1">
         <v>164</v>
-      </c>
-      <c r="M2" s="1">
-        <v>164.8</v>
       </c>
       <c r="N2" s="1">
         <v>164.8</v>
@@ -8484,17 +8512,22 @@
       <c r="O2" s="1">
         <v>164.8</v>
       </c>
+      <c r="P2" s="1">
+        <v>164.8</v>
+      </c>
     </row>
-    <row r="3" spans="1:15" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
       <c r="C3" s="1">
         <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
         <v>50</v>
@@ -8503,38 +8536,43 @@
         <v>50</v>
       </c>
       <c r="G3" s="1">
+        <v>50</v>
+      </c>
+      <c r="H3" s="1">
         <v>30</v>
       </c>
-      <c r="H3" s="4">
+      <c r="I3" s="4">
         <v>0</v>
       </c>
-      <c r="I3" s="4">
+      <c r="J3" s="4">
         <v>30</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="1">
         <v>100</v>
       </c>
-      <c r="K3" s="1">
+      <c r="L3" s="1">
         <v>0</v>
       </c>
-      <c r="L3" s="1">
+      <c r="M3" s="1">
         <v>200</v>
       </c>
-      <c r="M3" s="1">
+      <c r="N3" s="1">
         <v>0</v>
       </c>
-      <c r="N3" s="1">
+      <c r="O3" s="1">
         <v>200</v>
       </c>
-      <c r="O3" s="1">
+      <c r="P3" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1">
+        <v>8.5</v>
+      </c>
       <c r="C4" s="1">
         <v>0</v>
       </c>
@@ -8542,44 +8580,49 @@
         <v>0</v>
       </c>
       <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
         <v>8.5</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>17</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>8.5</v>
-      </c>
-      <c r="H4" s="4">
-        <v>0</v>
       </c>
       <c r="I4" s="4">
         <v>0</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="4">
         <v>0</v>
       </c>
       <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
         <v>17</v>
       </c>
-      <c r="L4" s="1">
+      <c r="M4" s="1">
         <v>8.5</v>
       </c>
-      <c r="M4" s="1">
+      <c r="N4" s="1">
         <v>17</v>
-      </c>
-      <c r="N4" s="1">
-        <v>0</v>
       </c>
       <c r="O4" s="1">
         <v>0</v>
       </c>
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
       <c r="C5" s="1">
         <v>0</v>
       </c>
@@ -8589,18 +8632,21 @@
       <c r="E5" s="1">
         <v>0</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="4"/>
+      <c r="H5" s="1"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="1"/>
+      <c r="J5" s="4"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -8608,10 +8654,10 @@
         <v>0</v>
       </c>
       <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
         <v>120</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -8620,12 +8666,12 @@
         <v>0</v>
       </c>
       <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
         <v>60</v>
       </c>
-      <c r="H6" s="4">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
+      <c r="I6" s="4">
         <v>0</v>
       </c>
       <c r="J6" s="1">
@@ -8646,33 +8692,36 @@
       <c r="O6" s="1">
         <v>0</v>
       </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C7" s="1">
         <v>50</v>
       </c>
       <c r="D7" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
       </c>
       <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
         <v>40</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>200</v>
       </c>
-      <c r="H7" s="4">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
+      <c r="I7" s="4">
         <v>0</v>
       </c>
       <c r="J7" s="1">
@@ -8693,8 +8742,11 @@
       <c r="O7" s="1">
         <v>0</v>
       </c>
+      <c r="P7" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -8702,16 +8754,17 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="2"/>
+      <c r="H8" s="7"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="7"/>
+      <c r="J8" s="2"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
     </row>
-    <row r="9" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>28</v>
       </c>
@@ -8719,46 +8772,49 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
+        <v>20</v>
+      </c>
+      <c r="D9" s="7">
         <v>50</v>
       </c>
-      <c r="D9" s="7">
+      <c r="E9" s="7">
         <v>20</v>
       </c>
-      <c r="E9" s="7">
+      <c r="F9" s="7">
         <v>10</v>
       </c>
-      <c r="F9" s="7">
+      <c r="G9" s="7">
         <v>100</v>
       </c>
-      <c r="G9" s="7">
+      <c r="H9" s="7">
         <v>40</v>
-      </c>
-      <c r="H9" s="2">
-        <v>10</v>
       </c>
       <c r="I9" s="2">
         <v>10</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="2">
         <v>10</v>
       </c>
       <c r="K9" s="7">
+        <v>10</v>
+      </c>
+      <c r="L9" s="7">
         <v>100</v>
       </c>
-      <c r="L9" s="7">
+      <c r="M9" s="7">
         <v>60</v>
       </c>
-      <c r="M9" s="7">
+      <c r="N9" s="7">
         <v>10</v>
       </c>
-      <c r="N9" s="7">
+      <c r="O9" s="7">
         <v>170</v>
       </c>
-      <c r="O9" s="7">
+      <c r="P9" s="7">
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -8766,48 +8822,49 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="2"/>
+      <c r="H10" s="7"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="7"/>
+      <c r="J10" s="2"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
     </row>
-    <row r="11" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B11" s="7">
+        <v>16</v>
+      </c>
+      <c r="C11" s="7">
         <v>10</v>
       </c>
-      <c r="C11" s="7">
+      <c r="D11" s="7">
         <v>14</v>
       </c>
-      <c r="D11" s="7">
+      <c r="E11" s="7">
         <v>30</v>
       </c>
-      <c r="E11" s="7">
+      <c r="F11" s="7">
         <v>10</v>
       </c>
-      <c r="F11" s="7">
+      <c r="G11" s="7">
         <v>16</v>
       </c>
-      <c r="G11" s="7">
+      <c r="H11" s="7">
         <v>25</v>
       </c>
-      <c r="H11" s="2">
+      <c r="I11" s="2">
         <v>0</v>
       </c>
-      <c r="I11" s="2">
+      <c r="J11" s="2">
         <v>5</v>
       </c>
-      <c r="J11" s="7">
+      <c r="K11" s="7">
         <v>30</v>
-      </c>
-      <c r="K11" s="7">
-        <v>10</v>
       </c>
       <c r="L11" s="7">
         <v>10</v>
@@ -8819,10 +8876,13 @@
         <v>10</v>
       </c>
       <c r="O11" s="7">
+        <v>10</v>
+      </c>
+      <c r="P11" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -8830,63 +8890,67 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="2"/>
+      <c r="H12" s="7"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="7"/>
+      <c r="J12" s="2"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
     </row>
-    <row r="13" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="2">
+        <v>80</v>
+      </c>
+      <c r="C13" s="2">
         <v>15</v>
       </c>
-      <c r="C13" s="2">
+      <c r="D13" s="2">
         <v>29</v>
       </c>
-      <c r="D13" s="2">
+      <c r="E13" s="2">
         <v>40</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F13" s="2">
         <v>45</v>
       </c>
-      <c r="F13" s="2">
+      <c r="G13" s="2">
         <v>31</v>
       </c>
-      <c r="G13" s="2">
+      <c r="H13" s="2">
         <v>12</v>
       </c>
-      <c r="H13" s="2">
+      <c r="I13" s="2">
         <v>84</v>
       </c>
-      <c r="I13" s="2">
+      <c r="J13" s="2">
         <v>1</v>
       </c>
-      <c r="J13" s="2">
+      <c r="K13" s="2">
         <v>43</v>
       </c>
-      <c r="K13" s="2">
+      <c r="L13" s="2">
         <v>14</v>
       </c>
-      <c r="L13" s="2">
+      <c r="M13" s="2">
         <v>25</v>
       </c>
-      <c r="M13" s="2">
+      <c r="N13" s="2">
         <v>12</v>
       </c>
-      <c r="N13" s="2">
+      <c r="O13" s="2">
         <v>21</v>
       </c>
-      <c r="O13" s="2">
+      <c r="P13" s="2">
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -8894,63 +8958,67 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="2"/>
+      <c r="H14" s="7"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="7"/>
+      <c r="J14" s="2"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
     </row>
-    <row r="15" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B15" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" s="7">
         <v>1</v>
       </c>
       <c r="D15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="7">
         <v>0</v>
       </c>
-      <c r="E15" s="7">
+      <c r="F15" s="7">
         <v>9</v>
       </c>
-      <c r="F15" s="7">
+      <c r="G15" s="7">
         <v>3</v>
       </c>
-      <c r="G15" s="7">
+      <c r="H15" s="7">
         <v>0</v>
       </c>
-      <c r="H15" s="2">
+      <c r="I15" s="2">
         <v>0</v>
       </c>
-      <c r="I15" s="2">
+      <c r="J15" s="2">
         <v>2</v>
       </c>
-      <c r="J15" s="7">
+      <c r="K15" s="7">
         <v>1</v>
-      </c>
-      <c r="K15" s="7">
-        <v>0</v>
       </c>
       <c r="L15" s="7">
         <v>0</v>
       </c>
       <c r="M15" s="7">
+        <v>0</v>
+      </c>
+      <c r="N15" s="7">
         <v>1</v>
       </c>
-      <c r="N15" s="7">
+      <c r="O15" s="7">
         <v>3</v>
       </c>
-      <c r="O15" s="7">
+      <c r="P15" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -8966,8 +9034,9 @@
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>32</v>
       </c>
@@ -8978,16 +9047,16 @@
         <v>1</v>
       </c>
       <c r="D17" s="10">
+        <v>1</v>
+      </c>
+      <c r="E17" s="10">
         <v>3</v>
       </c>
-      <c r="E17" s="10">
+      <c r="F17" s="10">
         <v>1</v>
       </c>
-      <c r="F17" s="10">
+      <c r="G17" s="10">
         <v>6</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -9013,14 +9082,18 @@
       <c r="O17">
         <v>1</v>
       </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/2024/.个人/微习惯新世界.xlsx
+++ b/2024/.个人/微习惯新世界.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1.NoteLibrary\StudyNotes\2024\.个人\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E705FB-90FA-441D-A8DF-F8B925AAA95E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE659B14-C936-4B98-A199-FE1D33244C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="33">
   <si>
     <t>微习惯💎</t>
   </si>
@@ -442,50 +442,56 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>全部图表!$C$1:$P$1</c:f>
+              <c:f>全部图表!$B$1:$Q$1</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>45307</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45306</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>45305</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>45304</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>45303</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>45302</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>45301</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>45300</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>45299</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>45298</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>45297</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>45296</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>45295</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>45294</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>45293</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>45292</c:v>
                 </c:pt>
               </c:numCache>
@@ -493,50 +499,56 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>全部图表!$C$2:$P$2</c:f>
+              <c:f>全部图表!$B$2:$Q$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>159.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>159.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>159.80000000000001</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>159.9</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>161.19999999999999</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>160.4</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>162.4</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>162.9</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>163.5</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>161</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>161</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>162.9</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>164</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>164.8</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>164.8</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>164.8</c:v>
                 </c:pt>
               </c:numCache>
@@ -825,47 +837,56 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>全部图表!$D$1:$P$1</c:f>
+              <c:f>全部图表!$B$1:$Q$1</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>45307</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45306</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45305</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>45304</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>45303</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>45302</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>45301</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>45300</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>45299</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>45298</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>45297</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>45296</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
                   <c:v>45295</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>45294</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>45293</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
                   <c:v>45292</c:v>
                 </c:pt>
               </c:numCache>
@@ -873,47 +894,56 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>全部图表!$D$3:$P$3</c:f>
+              <c:f>全部图表!$B$3:$Q$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>200</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>200</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
                   <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
@@ -1267,50 +1297,56 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>全部图表!$C$1:$P$1</c:f>
+              <c:f>全部图表!$B$1:$Q$1</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>45307</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45306</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>45305</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>45304</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>45303</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>45302</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>45301</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>45300</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>45299</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>45298</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>45297</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>45296</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>45295</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>45294</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>45293</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>45292</c:v>
                 </c:pt>
               </c:numCache>
@@ -1318,33 +1354,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>全部图表!$C$6:$P$6</c:f>
+              <c:f>全部图表!$B$6:$Q$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>120</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -1362,6 +1398,12 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1469,50 +1511,56 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>全部图表!$C$1:$P$1</c:f>
+              <c:f>全部图表!$B$1:$Q$1</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>45307</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45306</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>45305</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>45304</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>45303</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>45302</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>45301</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>45300</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>45299</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>45298</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>45297</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>45296</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>45295</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>45294</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>45293</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>45292</c:v>
                 </c:pt>
               </c:numCache>
@@ -1520,33 +1568,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>全部图表!$C$7:$P$7</c:f>
+              <c:f>全部图表!$B$7:$Q$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -1564,6 +1612,12 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1873,50 +1927,56 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>全部图表!$C$1:$P$1</c:f>
+              <c:f>全部图表!$B$1:$Q$1</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>45307</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45306</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>45305</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>45304</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>45303</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>45302</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>45301</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>45300</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>45299</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>45298</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>45297</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>45296</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>45295</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>45294</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>45293</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>45292</c:v>
                 </c:pt>
               </c:numCache>
@@ -1924,50 +1984,56 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>全部图表!$C$9:$P$9</c:f>
+              <c:f>全部图表!$B$9:$Q$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>170</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>90</c:v>
                 </c:pt>
               </c:numCache>
@@ -2261,50 +2327,56 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>全部图表!$C$1:$P$1</c:f>
+              <c:f>全部图表!$B$1:$Q$1</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>45307</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45306</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>45305</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>45304</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>45303</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>45302</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>45301</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>45300</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>45299</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>45298</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>45297</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>45296</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>45295</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>45294</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>45293</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>45292</c:v>
                 </c:pt>
               </c:numCache>
@@ -2312,42 +2384,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>全部图表!$C$11:$P$11</c:f>
+              <c:f>全部图表!$B$11:$Q$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>10</c:v>
@@ -2356,6 +2428,12 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
@@ -7453,7 +7531,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
@@ -7489,7 +7567,7 @@
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
@@ -7525,7 +7603,7 @@
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>731520</xdr:colOff>
       <xdr:row>63</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
@@ -7561,7 +7639,7 @@
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
       <xdr:row>89</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
@@ -7599,7 +7677,7 @@
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>77</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -7939,7 +8017,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8102,7 +8180,9 @@
       <c r="Q3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="9"/>
+      <c r="R3" s="9" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" spans="1:18" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
@@ -8208,7 +8288,9 @@
       <c r="Q5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="R5" s="9"/>
+      <c r="R5" s="9" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:18" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
@@ -8260,7 +8342,9 @@
       <c r="Q6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="R6" s="9"/>
+      <c r="R6" s="9" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:18" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
@@ -8312,7 +8396,9 @@
       <c r="Q7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="R7" s="9"/>
+      <c r="R7" s="9" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="8" spans="1:18" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
@@ -8364,7 +8450,9 @@
       <c r="Q8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="R8" s="9"/>
+      <c r="R8" s="9" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="1:18" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
@@ -8405,109 +8493,112 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46AAD2A0-53C1-4B51-8443-D48BC613435D}">
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="21" width="10.77734375" customWidth="1"/>
+    <col min="2" max="22" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="3">
+        <v>45307</v>
+      </c>
+      <c r="C1" s="3">
         <v>45306</v>
       </c>
-      <c r="C1" s="3">
+      <c r="D1" s="3">
         <v>45305</v>
       </c>
-      <c r="D1" s="3">
+      <c r="E1" s="3">
         <v>45304</v>
       </c>
-      <c r="E1" s="3">
+      <c r="F1" s="3">
         <v>45303</v>
       </c>
-      <c r="F1" s="3">
+      <c r="G1" s="3">
         <v>45302</v>
       </c>
-      <c r="G1" s="3">
+      <c r="H1" s="3">
         <v>45301</v>
       </c>
-      <c r="H1" s="3">
+      <c r="I1" s="3">
         <v>45300</v>
       </c>
-      <c r="I1" s="3">
+      <c r="J1" s="3">
         <v>45299</v>
       </c>
-      <c r="J1" s="3">
+      <c r="K1" s="3">
         <v>45298</v>
       </c>
-      <c r="K1" s="3">
+      <c r="L1" s="3">
         <v>45297</v>
       </c>
-      <c r="L1" s="3">
+      <c r="M1" s="3">
         <v>45296</v>
       </c>
-      <c r="M1" s="3">
+      <c r="N1" s="3">
         <v>45295</v>
       </c>
-      <c r="N1" s="3">
+      <c r="O1" s="3">
         <v>45294</v>
       </c>
-      <c r="O1" s="3">
+      <c r="P1" s="3">
         <v>45293</v>
       </c>
-      <c r="P1" s="3">
+      <c r="Q1" s="3">
         <v>45292</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="1">
+        <v>159.5</v>
+      </c>
+      <c r="C2" s="1">
         <v>159.6</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>159.80000000000001</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>159.9</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>161.19999999999999</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>160.4</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>162.4</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>162.9</v>
       </c>
-      <c r="I2" s="4">
+      <c r="J2" s="4">
         <v>163.5</v>
       </c>
-      <c r="J2" s="4">
+      <c r="K2" s="4">
         <v>161</v>
       </c>
-      <c r="K2" s="1">
+      <c r="L2" s="1">
         <v>161</v>
       </c>
-      <c r="L2" s="1">
+      <c r="M2" s="1">
         <v>162.9</v>
       </c>
-      <c r="M2" s="1">
+      <c r="N2" s="1">
         <v>164</v>
-      </c>
-      <c r="N2" s="1">
-        <v>164.8</v>
       </c>
       <c r="O2" s="1">
         <v>164.8</v>
@@ -8515,8 +8606,11 @@
       <c r="P2" s="1">
         <v>164.8</v>
       </c>
+      <c r="Q2" s="1">
+        <v>164.8</v>
+      </c>
     </row>
-    <row r="3" spans="1:16" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -8530,7 +8624,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
         <v>50</v>
@@ -8539,42 +8633,45 @@
         <v>50</v>
       </c>
       <c r="H3" s="1">
+        <v>50</v>
+      </c>
+      <c r="I3" s="1">
         <v>30</v>
       </c>
-      <c r="I3" s="4">
+      <c r="J3" s="4">
         <v>0</v>
       </c>
-      <c r="J3" s="4">
+      <c r="K3" s="4">
         <v>30</v>
       </c>
-      <c r="K3" s="1">
+      <c r="L3" s="1">
         <v>100</v>
       </c>
-      <c r="L3" s="1">
+      <c r="M3" s="1">
         <v>0</v>
       </c>
-      <c r="M3" s="1">
+      <c r="N3" s="1">
         <v>200</v>
       </c>
-      <c r="N3" s="1">
+      <c r="O3" s="1">
         <v>0</v>
       </c>
-      <c r="O3" s="1">
+      <c r="P3" s="1">
         <v>200</v>
       </c>
-      <c r="P3" s="1">
+      <c r="Q3" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="1">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1">
         <v>8.5</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
@@ -8583,40 +8680,43 @@
         <v>0</v>
       </c>
       <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
         <v>8.5</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>17</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>8.5</v>
-      </c>
-      <c r="I4" s="4">
-        <v>0</v>
       </c>
       <c r="J4" s="4">
         <v>0</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="4">
         <v>0</v>
       </c>
       <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
         <v>17</v>
       </c>
-      <c r="M4" s="1">
+      <c r="N4" s="1">
         <v>8.5</v>
       </c>
-      <c r="N4" s="1">
+      <c r="O4" s="1">
         <v>17</v>
-      </c>
-      <c r="O4" s="1">
-        <v>0</v>
       </c>
       <c r="P4" s="1">
         <v>0</v>
       </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -8635,18 +8735,21 @@
       <c r="F5" s="1">
         <v>0</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
       <c r="H5" s="1"/>
-      <c r="I5" s="4"/>
+      <c r="I5" s="1"/>
       <c r="J5" s="4"/>
-      <c r="K5" s="1"/>
+      <c r="K5" s="4"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -8657,10 +8760,10 @@
         <v>0</v>
       </c>
       <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
         <v>120</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -8669,12 +8772,12 @@
         <v>0</v>
       </c>
       <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
         <v>60</v>
       </c>
-      <c r="I6" s="4">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
+      <c r="J6" s="4">
         <v>0</v>
       </c>
       <c r="K6" s="1">
@@ -8695,8 +8798,11 @@
       <c r="P6" s="1">
         <v>0</v>
       </c>
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -8704,27 +8810,27 @@
         <v>0</v>
       </c>
       <c r="C7" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
         <v>50</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
       </c>
       <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
         <v>40</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>200</v>
       </c>
-      <c r="I7" s="4">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
+      <c r="J7" s="4">
         <v>0</v>
       </c>
       <c r="K7" s="1">
@@ -8745,8 +8851,11 @@
       <c r="P7" s="1">
         <v>0</v>
       </c>
+      <c r="Q7" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -8755,16 +8864,17 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
-      <c r="I8" s="2"/>
+      <c r="I8" s="7"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="7"/>
+      <c r="K8" s="2"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
     </row>
-    <row r="9" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>28</v>
       </c>
@@ -8775,46 +8885,49 @@
         <v>20</v>
       </c>
       <c r="D9" s="7">
+        <v>20</v>
+      </c>
+      <c r="E9" s="7">
         <v>50</v>
       </c>
-      <c r="E9" s="7">
+      <c r="F9" s="7">
         <v>20</v>
       </c>
-      <c r="F9" s="7">
+      <c r="G9" s="7">
         <v>10</v>
       </c>
-      <c r="G9" s="7">
+      <c r="H9" s="7">
         <v>100</v>
       </c>
-      <c r="H9" s="7">
+      <c r="I9" s="7">
         <v>40</v>
-      </c>
-      <c r="I9" s="2">
-        <v>10</v>
       </c>
       <c r="J9" s="2">
         <v>10</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="2">
         <v>10</v>
       </c>
       <c r="L9" s="7">
+        <v>10</v>
+      </c>
+      <c r="M9" s="7">
         <v>100</v>
       </c>
-      <c r="M9" s="7">
+      <c r="N9" s="7">
         <v>60</v>
       </c>
-      <c r="N9" s="7">
+      <c r="O9" s="7">
         <v>10</v>
       </c>
-      <c r="O9" s="7">
+      <c r="P9" s="7">
         <v>170</v>
       </c>
-      <c r="P9" s="7">
+      <c r="Q9" s="7">
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -8823,51 +8936,52 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
-      <c r="I10" s="2"/>
+      <c r="I10" s="7"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="7"/>
+      <c r="K10" s="2"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
     </row>
-    <row r="11" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B11" s="7">
+        <v>0</v>
+      </c>
+      <c r="C11" s="7">
         <v>16</v>
       </c>
-      <c r="C11" s="7">
+      <c r="D11" s="7">
         <v>10</v>
       </c>
-      <c r="D11" s="7">
+      <c r="E11" s="7">
         <v>14</v>
       </c>
-      <c r="E11" s="7">
+      <c r="F11" s="7">
         <v>30</v>
       </c>
-      <c r="F11" s="7">
+      <c r="G11" s="7">
         <v>10</v>
       </c>
-      <c r="G11" s="7">
+      <c r="H11" s="7">
         <v>16</v>
       </c>
-      <c r="H11" s="7">
+      <c r="I11" s="7">
         <v>25</v>
       </c>
-      <c r="I11" s="2">
+      <c r="J11" s="2">
         <v>0</v>
       </c>
-      <c r="J11" s="2">
+      <c r="K11" s="2">
         <v>5</v>
       </c>
-      <c r="K11" s="7">
+      <c r="L11" s="7">
         <v>30</v>
-      </c>
-      <c r="L11" s="7">
-        <v>10</v>
       </c>
       <c r="M11" s="7">
         <v>10</v>
@@ -8879,10 +8993,13 @@
         <v>10</v>
       </c>
       <c r="P11" s="7">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -8891,66 +9008,70 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
-      <c r="I12" s="2"/>
+      <c r="I12" s="7"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="7"/>
+      <c r="K12" s="2"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
     </row>
-    <row r="13" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="2">
+        <v>95</v>
+      </c>
+      <c r="C13" s="2">
         <v>80</v>
       </c>
-      <c r="C13" s="2">
+      <c r="D13" s="2">
         <v>15</v>
       </c>
-      <c r="D13" s="2">
+      <c r="E13" s="2">
         <v>29</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F13" s="2">
         <v>40</v>
       </c>
-      <c r="F13" s="2">
+      <c r="G13" s="2">
         <v>45</v>
       </c>
-      <c r="G13" s="2">
+      <c r="H13" s="2">
         <v>31</v>
       </c>
-      <c r="H13" s="2">
+      <c r="I13" s="2">
         <v>12</v>
       </c>
-      <c r="I13" s="2">
+      <c r="J13" s="2">
         <v>84</v>
       </c>
-      <c r="J13" s="2">
+      <c r="K13" s="2">
         <v>1</v>
       </c>
-      <c r="K13" s="2">
+      <c r="L13" s="2">
         <v>43</v>
       </c>
-      <c r="L13" s="2">
+      <c r="M13" s="2">
         <v>14</v>
       </c>
-      <c r="M13" s="2">
+      <c r="N13" s="2">
         <v>25</v>
       </c>
-      <c r="N13" s="2">
+      <c r="O13" s="2">
         <v>12</v>
       </c>
-      <c r="O13" s="2">
+      <c r="P13" s="2">
         <v>21</v>
       </c>
-      <c r="P13" s="2">
+      <c r="Q13" s="2">
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -8959,66 +9080,70 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
-      <c r="I14" s="2"/>
+      <c r="I14" s="7"/>
       <c r="J14" s="2"/>
-      <c r="K14" s="7"/>
+      <c r="K14" s="2"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
     </row>
-    <row r="15" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B15" s="7">
+        <v>1</v>
+      </c>
+      <c r="C15" s="7">
         <v>2</v>
-      </c>
-      <c r="C15" s="7">
-        <v>1</v>
       </c>
       <c r="D15" s="7">
         <v>1</v>
       </c>
       <c r="E15" s="7">
+        <v>1</v>
+      </c>
+      <c r="F15" s="7">
         <v>0</v>
       </c>
-      <c r="F15" s="7">
+      <c r="G15" s="7">
         <v>9</v>
       </c>
-      <c r="G15" s="7">
+      <c r="H15" s="7">
         <v>3</v>
       </c>
-      <c r="H15" s="7">
+      <c r="I15" s="7">
         <v>0</v>
       </c>
-      <c r="I15" s="2">
+      <c r="J15" s="2">
         <v>0</v>
       </c>
-      <c r="J15" s="2">
+      <c r="K15" s="2">
         <v>2</v>
       </c>
-      <c r="K15" s="7">
+      <c r="L15" s="7">
         <v>1</v>
-      </c>
-      <c r="L15" s="7">
-        <v>0</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
       </c>
       <c r="N15" s="7">
+        <v>0</v>
+      </c>
+      <c r="O15" s="7">
         <v>1</v>
       </c>
-      <c r="O15" s="7">
+      <c r="P15" s="7">
         <v>3</v>
       </c>
-      <c r="P15" s="7">
+      <c r="Q15" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -9035,8 +9160,9 @@
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
       <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>32</v>
       </c>
@@ -9050,16 +9176,16 @@
         <v>1</v>
       </c>
       <c r="E17" s="10">
+        <v>1</v>
+      </c>
+      <c r="F17" s="10">
         <v>3</v>
       </c>
-      <c r="F17" s="10">
+      <c r="G17" s="10">
         <v>1</v>
       </c>
-      <c r="G17" s="10">
+      <c r="H17" s="10">
         <v>6</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -9085,8 +9211,11 @@
       <c r="P17">
         <v>1</v>
       </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -9094,6 +9223,7 @@
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/2024/.个人/微习惯新世界.xlsx
+++ b/2024/.个人/微习惯新世界.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1.NoteLibrary\StudyNotes\2024\.个人\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE659B14-C936-4B98-A199-FE1D33244C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DAA7B25-87C2-4BE9-A65E-D1CE0B5F105E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="33">
   <si>
     <t>微习惯💎</t>
   </si>
@@ -137,7 +137,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,6 +179,14 @@
       <color rgb="FFFFC000"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -254,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -290,6 +298,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="58" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -442,56 +457,65 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>全部图表!$B$1:$Q$1</c:f>
+              <c:f>全部图表!$C$1:$U$1</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>45310</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45309</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45308</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>45307</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>45306</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>45305</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>45304</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>45303</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>45302</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>45301</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>45300</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>45299</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
                   <c:v>45298</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>45297</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>45296</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
                   <c:v>45295</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="16">
                   <c:v>45294</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="17">
                   <c:v>45293</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>45292</c:v>
                 </c:pt>
               </c:numCache>
@@ -499,56 +523,65 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>全部图表!$B$2:$Q$2</c:f>
+              <c:f>全部图表!$C$2:$U$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>159.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>159.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>159.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>159.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>159.6</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>159.80000000000001</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>159.9</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>161.19999999999999</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>160.4</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>162.4</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>162.9</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>163.5</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
                   <c:v>161</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>161</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>162.9</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
                   <c:v>164</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="16">
                   <c:v>164.8</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="17">
                   <c:v>164.8</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>164.8</c:v>
                 </c:pt>
               </c:numCache>
@@ -837,56 +870,65 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>全部图表!$B$1:$Q$1</c:f>
+              <c:f>全部图表!$C$1:$U$1</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>45310</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45309</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45308</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>45307</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>45306</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>45305</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>45304</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>45303</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>45302</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>45301</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>45300</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>45299</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
                   <c:v>45298</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>45297</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>45296</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
                   <c:v>45295</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="16">
                   <c:v>45294</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="17">
                   <c:v>45293</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>45292</c:v>
                 </c:pt>
               </c:numCache>
@@ -894,56 +936,65 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>全部图表!$B$3:$Q$3</c:f>
+              <c:f>全部图表!$C$3:$U$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>200</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="16">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="17">
                   <c:v>200</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
@@ -1297,56 +1348,65 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>全部图表!$B$1:$Q$1</c:f>
+              <c:f>全部图表!$C$1:$U$1</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>45310</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45309</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45308</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>45307</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>45306</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>45305</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>45304</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>45303</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>45302</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>45301</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>45300</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>45299</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
                   <c:v>45298</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>45297</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>45296</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
                   <c:v>45295</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="16">
                   <c:v>45294</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="17">
                   <c:v>45293</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>45292</c:v>
                 </c:pt>
               </c:numCache>
@@ -1354,10 +1414,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>全部图表!$B$6:$Q$6</c:f>
+              <c:f>全部图表!$C$6:$U$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1368,7 +1428,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>120</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1377,10 +1437,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -1389,7 +1449,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -1404,6 +1464,15 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1511,56 +1580,65 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>全部图表!$B$1:$Q$1</c:f>
+              <c:f>全部图表!$C$1:$U$1</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>45310</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45309</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45308</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>45307</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>45306</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>45305</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>45304</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>45303</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>45302</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>45301</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>45300</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>45299</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
                   <c:v>45298</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>45297</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>45296</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
                   <c:v>45295</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="16">
                   <c:v>45294</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="17">
                   <c:v>45293</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>45292</c:v>
                 </c:pt>
               </c:numCache>
@@ -1568,10 +1646,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>全部图表!$B$7:$Q$7</c:f>
+              <c:f>全部图表!$C$7:$U$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1579,31 +1657,31 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -1618,6 +1696,15 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1927,56 +2014,65 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>全部图表!$B$1:$Q$1</c:f>
+              <c:f>全部图表!$C$1:$U$1</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>45310</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45309</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45308</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>45307</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>45306</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>45305</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>45304</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>45303</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>45302</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>45301</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>45300</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>45299</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
                   <c:v>45298</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>45297</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>45296</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
                   <c:v>45295</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="16">
                   <c:v>45294</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="17">
                   <c:v>45293</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>45292</c:v>
                 </c:pt>
               </c:numCache>
@@ -1984,10 +2080,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>全部图表!$B$9:$Q$9</c:f>
+              <c:f>全部图表!$C$9:$U$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>20</c:v>
                 </c:pt>
@@ -1998,42 +2094,51 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>170</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>90</c:v>
                 </c:pt>
               </c:numCache>
@@ -2327,56 +2432,65 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>全部图表!$B$1:$Q$1</c:f>
+              <c:f>全部图表!$C$1:$U$1</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>45310</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45309</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45308</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>45307</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>45306</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>45305</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>45304</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>45303</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>45302</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>45301</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>45300</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>45299</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
                   <c:v>45298</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>45297</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>45296</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
                   <c:v>45295</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="16">
                   <c:v>45294</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="17">
                   <c:v>45293</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>45292</c:v>
                 </c:pt>
               </c:numCache>
@@ -2384,56 +2498,65 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>全部图表!$B$11:$Q$11</c:f>
+              <c:f>全部图表!$C$11:$U$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
@@ -7531,10 +7654,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7567,10 +7690,10 @@
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7604,9 +7727,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>731520</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7635,14 +7758,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7677,10 +7800,10 @@
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8014,19 +8137,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13AD3505-AB6F-47A4-83BE-C57C66D74A34}">
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:V10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.88671875" customWidth="1"/>
-    <col min="2" max="18" width="10.77734375" customWidth="1"/>
+    <col min="2" max="20" width="10.77734375" customWidth="1"/>
+    <col min="21" max="21" width="10.77734375" style="15" customWidth="1"/>
+    <col min="22" max="22" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -8079,8 +8204,20 @@
       <c r="R1" s="5">
         <v>45307</v>
       </c>
+      <c r="S1" s="5">
+        <v>45308</v>
+      </c>
+      <c r="T1" s="5">
+        <v>45309</v>
+      </c>
+      <c r="U1" s="13">
+        <v>45310</v>
+      </c>
+      <c r="V1" s="5">
+        <v>45311</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -8127,12 +8264,22 @@
       <c r="P2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="Q2" s="8" t="s">
         <v>4</v>
       </c>
       <c r="R2" s="9"/>
+      <c r="S2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="U2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="V2" s="9"/>
     </row>
-    <row r="3" spans="1:18" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -8177,14 +8324,24 @@
       <c r="P3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="R3" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="Q3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="U3" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="V3" s="9"/>
     </row>
-    <row r="4" spans="1:18" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -8231,14 +8388,24 @@
       <c r="P4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="Q4" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="R4" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="Q4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="U4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="V4" s="9"/>
     </row>
-    <row r="5" spans="1:18" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -8285,14 +8452,24 @@
       <c r="P5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="R5" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="Q5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="S5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="T5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="U5" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="V5" s="9"/>
     </row>
-    <row r="6" spans="1:18" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -8339,14 +8516,24 @@
       <c r="P6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="Q6" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="R6" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="Q6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="R6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="S6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="T6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="U6" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="V6" s="9"/>
     </row>
-    <row r="7" spans="1:18" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
@@ -8393,14 +8580,24 @@
       <c r="P7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="Q7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="R7" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="Q7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="S7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="T7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="U7" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="V7" s="9"/>
     </row>
-    <row r="8" spans="1:18" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
@@ -8447,14 +8644,26 @@
       <c r="P8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="Q8" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="R8" s="9" t="s">
+      <c r="Q8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="S8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="T8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="U8" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="V8" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -8468,7 +8677,7 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="1:18" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="4" t="s">
         <v>2</v>
       </c>
@@ -8493,185 +8702,215 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46AAD2A0-53C1-4B51-8443-D48BC613435D}">
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:U18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="22" width="10.77734375" customWidth="1"/>
+    <col min="2" max="26" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="3">
+        <v>45311</v>
+      </c>
+      <c r="C1" s="3">
+        <v>45310</v>
+      </c>
+      <c r="D1" s="3">
+        <v>45309</v>
+      </c>
+      <c r="E1" s="3">
+        <v>45308</v>
+      </c>
+      <c r="F1" s="3">
         <v>45307</v>
       </c>
-      <c r="C1" s="3">
+      <c r="G1" s="3">
         <v>45306</v>
       </c>
-      <c r="D1" s="3">
+      <c r="H1" s="3">
         <v>45305</v>
       </c>
-      <c r="E1" s="3">
+      <c r="I1" s="3">
         <v>45304</v>
       </c>
-      <c r="F1" s="3">
+      <c r="J1" s="3">
         <v>45303</v>
       </c>
-      <c r="G1" s="3">
+      <c r="K1" s="3">
         <v>45302</v>
       </c>
-      <c r="H1" s="3">
+      <c r="L1" s="3">
         <v>45301</v>
       </c>
-      <c r="I1" s="3">
+      <c r="M1" s="3">
         <v>45300</v>
       </c>
-      <c r="J1" s="3">
+      <c r="N1" s="3">
         <v>45299</v>
       </c>
-      <c r="K1" s="3">
+      <c r="O1" s="3">
         <v>45298</v>
       </c>
-      <c r="L1" s="3">
+      <c r="P1" s="3">
         <v>45297</v>
       </c>
-      <c r="M1" s="3">
+      <c r="Q1" s="3">
         <v>45296</v>
       </c>
-      <c r="N1" s="3">
+      <c r="R1" s="3">
         <v>45295</v>
       </c>
-      <c r="O1" s="3">
+      <c r="S1" s="3">
         <v>45294</v>
       </c>
-      <c r="P1" s="3">
+      <c r="T1" s="3">
         <v>45293</v>
       </c>
-      <c r="Q1" s="3">
+      <c r="U1" s="3">
         <v>45292</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1">
         <v>159.5</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
+        <v>159.5</v>
+      </c>
+      <c r="E2" s="1">
+        <v>159.5</v>
+      </c>
+      <c r="F2" s="1">
+        <v>159.5</v>
+      </c>
+      <c r="G2" s="1">
         <v>159.6</v>
       </c>
-      <c r="D2" s="1">
+      <c r="H2" s="1">
         <v>159.80000000000001</v>
       </c>
-      <c r="E2" s="1">
+      <c r="I2" s="1">
         <v>159.9</v>
       </c>
-      <c r="F2" s="1">
+      <c r="J2" s="1">
         <v>161.19999999999999</v>
       </c>
-      <c r="G2" s="1">
+      <c r="K2" s="1">
         <v>160.4</v>
       </c>
-      <c r="H2" s="1">
+      <c r="L2" s="1">
         <v>162.4</v>
-      </c>
-      <c r="I2" s="1">
-        <v>162.9</v>
-      </c>
-      <c r="J2" s="4">
-        <v>163.5</v>
-      </c>
-      <c r="K2" s="4">
-        <v>161</v>
-      </c>
-      <c r="L2" s="1">
-        <v>161</v>
       </c>
       <c r="M2" s="1">
         <v>162.9</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N2" s="4">
+        <v>163.5</v>
+      </c>
+      <c r="O2" s="4">
+        <v>161</v>
+      </c>
+      <c r="P2" s="1">
+        <v>161</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>162.9</v>
+      </c>
+      <c r="R2" s="1">
         <v>164</v>
       </c>
-      <c r="O2" s="1">
+      <c r="S2" s="1">
         <v>164.8</v>
       </c>
-      <c r="P2" s="1">
+      <c r="T2" s="1">
         <v>164.8</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="U2" s="1">
         <v>164.8</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1">
+        <v>100</v>
+      </c>
+      <c r="D3" s="1">
+        <v>80</v>
+      </c>
+      <c r="E3" s="1">
+        <v>50</v>
+      </c>
+      <c r="F3" s="1">
         <v>0</v>
       </c>
-      <c r="C3" s="1">
+      <c r="G3" s="1">
         <v>0</v>
       </c>
-      <c r="D3" s="1">
+      <c r="H3" s="1">
         <v>0</v>
       </c>
-      <c r="E3" s="1">
+      <c r="I3" s="1">
         <v>0</v>
       </c>
-      <c r="F3" s="1">
+      <c r="J3" s="1">
         <v>50</v>
       </c>
-      <c r="G3" s="1">
+      <c r="K3" s="1">
         <v>50</v>
       </c>
-      <c r="H3" s="1">
+      <c r="L3" s="1">
         <v>50</v>
       </c>
-      <c r="I3" s="1">
+      <c r="M3" s="1">
         <v>30</v>
       </c>
-      <c r="J3" s="4">
+      <c r="N3" s="4">
         <v>0</v>
       </c>
-      <c r="K3" s="4">
+      <c r="O3" s="4">
         <v>30</v>
       </c>
-      <c r="L3" s="1">
+      <c r="P3" s="1">
         <v>100</v>
       </c>
-      <c r="M3" s="1">
+      <c r="Q3" s="1">
         <v>0</v>
       </c>
-      <c r="N3" s="1">
+      <c r="R3" s="1">
         <v>200</v>
       </c>
-      <c r="O3" s="1">
+      <c r="S3" s="1">
         <v>0</v>
       </c>
-      <c r="P3" s="1">
+      <c r="T3" s="1">
         <v>200</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="U3" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="1">
-        <v>17</v>
-      </c>
+      <c r="B4" s="1"/>
       <c r="C4" s="1">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
@@ -8680,49 +8919,59 @@
         <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G4" s="1">
         <v>8.5</v>
       </c>
       <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="L4" s="1">
         <v>17</v>
       </c>
-      <c r="I4" s="1">
+      <c r="M4" s="1">
         <v>8.5</v>
       </c>
-      <c r="J4" s="4">
+      <c r="N4" s="4">
         <v>0</v>
       </c>
-      <c r="K4" s="4">
+      <c r="O4" s="4">
         <v>0</v>
-      </c>
-      <c r="L4" s="1">
-        <v>0</v>
-      </c>
-      <c r="M4" s="1">
-        <v>17</v>
-      </c>
-      <c r="N4" s="1">
-        <v>8.5</v>
-      </c>
-      <c r="O4" s="1">
-        <v>17</v>
       </c>
       <c r="P4" s="1">
         <v>0</v>
       </c>
       <c r="Q4" s="1">
+        <v>17</v>
+      </c>
+      <c r="R4" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="S4" s="1">
+        <v>17</v>
+      </c>
+      <c r="T4" s="1">
         <v>0</v>
       </c>
+      <c r="U4" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
+      <c r="B5" s="1"/>
       <c r="C5" s="1">
         <v>0</v>
       </c>
@@ -8738,24 +8987,34 @@
       <c r="G5" s="1">
         <v>0</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
     </row>
-    <row r="6" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="1">
-        <v>0</v>
-      </c>
+      <c r="B6" s="1"/>
       <c r="C6" s="1">
         <v>0</v>
       </c>
@@ -8763,7 +9022,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -8775,9 +9034,9 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>60</v>
-      </c>
-      <c r="J6" s="4">
+        <v>120</v>
+      </c>
+      <c r="J6" s="1">
         <v>0</v>
       </c>
       <c r="K6" s="1">
@@ -8787,9 +9046,9 @@
         <v>0</v>
       </c>
       <c r="M6" s="1">
-        <v>0</v>
-      </c>
-      <c r="N6" s="1">
+        <v>60</v>
+      </c>
+      <c r="N6" s="4">
         <v>0</v>
       </c>
       <c r="O6" s="1">
@@ -8801,22 +9060,32 @@
       <c r="Q6" s="1">
         <v>0</v>
       </c>
+      <c r="R6" s="1">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="1">
-        <v>0</v>
-      </c>
+      <c r="B7" s="1"/>
       <c r="C7" s="1">
         <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -8825,24 +9094,24 @@
         <v>0</v>
       </c>
       <c r="H7" s="1">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I7" s="1">
-        <v>200</v>
-      </c>
-      <c r="J7" s="4">
+        <v>50</v>
+      </c>
+      <c r="J7" s="1">
         <v>0</v>
       </c>
       <c r="K7" s="1">
         <v>0</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="M7" s="1">
-        <v>0</v>
-      </c>
-      <c r="N7" s="1">
+        <v>200</v>
+      </c>
+      <c r="N7" s="4">
         <v>0</v>
       </c>
       <c r="O7" s="1">
@@ -8854,8 +9123,20 @@
       <c r="Q7" s="1">
         <v>0</v>
       </c>
+      <c r="R7" s="1">
+        <v>0</v>
+      </c>
+      <c r="S7" s="1">
+        <v>0</v>
+      </c>
+      <c r="T7" s="1">
+        <v>0</v>
+      </c>
+      <c r="U7" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -8865,22 +9146,24 @@
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
     </row>
-    <row r="9" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="7">
-        <v>20</v>
-      </c>
+      <c r="B9" s="7"/>
       <c r="C9" s="7">
         <v>20</v>
       </c>
@@ -8888,46 +9171,58 @@
         <v>20</v>
       </c>
       <c r="E9" s="7">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F9" s="7">
         <v>20</v>
       </c>
       <c r="G9" s="7">
+        <v>20</v>
+      </c>
+      <c r="H9" s="7">
+        <v>20</v>
+      </c>
+      <c r="I9" s="7">
+        <v>50</v>
+      </c>
+      <c r="J9" s="7">
+        <v>20</v>
+      </c>
+      <c r="K9" s="7">
         <v>10</v>
       </c>
-      <c r="H9" s="7">
+      <c r="L9" s="7">
         <v>100</v>
       </c>
-      <c r="I9" s="7">
+      <c r="M9" s="7">
         <v>40</v>
       </c>
-      <c r="J9" s="2">
+      <c r="N9" s="2">
         <v>10</v>
       </c>
-      <c r="K9" s="2">
+      <c r="O9" s="2">
         <v>10</v>
       </c>
-      <c r="L9" s="7">
+      <c r="P9" s="7">
         <v>10</v>
       </c>
-      <c r="M9" s="7">
+      <c r="Q9" s="7">
         <v>100</v>
       </c>
-      <c r="N9" s="7">
+      <c r="R9" s="7">
         <v>60</v>
       </c>
-      <c r="O9" s="7">
+      <c r="S9" s="7">
         <v>10</v>
       </c>
-      <c r="P9" s="7">
+      <c r="T9" s="7">
         <v>170</v>
       </c>
-      <c r="Q9" s="7">
+      <c r="U9" s="7">
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -8937,69 +9232,83 @@
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
     </row>
-    <row r="11" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7">
+        <v>10</v>
+      </c>
+      <c r="D11" s="7">
+        <v>25</v>
+      </c>
+      <c r="E11" s="7">
+        <v>11</v>
+      </c>
+      <c r="F11" s="7">
         <v>0</v>
       </c>
-      <c r="C11" s="7">
+      <c r="G11" s="7">
         <v>16</v>
       </c>
-      <c r="D11" s="7">
+      <c r="H11" s="7">
         <v>10</v>
       </c>
-      <c r="E11" s="7">
+      <c r="I11" s="7">
         <v>14</v>
       </c>
-      <c r="F11" s="7">
+      <c r="J11" s="7">
         <v>30</v>
       </c>
-      <c r="G11" s="7">
+      <c r="K11" s="7">
         <v>10</v>
       </c>
-      <c r="H11" s="7">
+      <c r="L11" s="7">
         <v>16</v>
       </c>
-      <c r="I11" s="7">
+      <c r="M11" s="7">
         <v>25</v>
       </c>
-      <c r="J11" s="2">
+      <c r="N11" s="2">
         <v>0</v>
       </c>
-      <c r="K11" s="2">
+      <c r="O11" s="2">
         <v>5</v>
       </c>
-      <c r="L11" s="7">
+      <c r="P11" s="7">
         <v>30</v>
       </c>
-      <c r="M11" s="7">
+      <c r="Q11" s="7">
         <v>10</v>
       </c>
-      <c r="N11" s="7">
+      <c r="R11" s="7">
         <v>10</v>
       </c>
-      <c r="O11" s="7">
+      <c r="S11" s="7">
         <v>10</v>
       </c>
-      <c r="P11" s="7">
+      <c r="T11" s="7">
         <v>10</v>
       </c>
-      <c r="Q11" s="7">
+      <c r="U11" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -9009,69 +9318,83 @@
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
     </row>
-    <row r="13" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>5</v>
+      </c>
+      <c r="E13" s="2">
+        <v>4</v>
+      </c>
+      <c r="F13" s="2">
         <v>95</v>
       </c>
-      <c r="C13" s="2">
+      <c r="G13" s="2">
         <v>80</v>
       </c>
-      <c r="D13" s="2">
+      <c r="H13" s="2">
         <v>15</v>
       </c>
-      <c r="E13" s="2">
+      <c r="I13" s="2">
         <v>29</v>
       </c>
-      <c r="F13" s="2">
+      <c r="J13" s="2">
         <v>40</v>
       </c>
-      <c r="G13" s="2">
+      <c r="K13" s="2">
         <v>45</v>
       </c>
-      <c r="H13" s="2">
+      <c r="L13" s="2">
         <v>31</v>
       </c>
-      <c r="I13" s="2">
+      <c r="M13" s="2">
         <v>12</v>
       </c>
-      <c r="J13" s="2">
+      <c r="N13" s="2">
         <v>84</v>
       </c>
-      <c r="K13" s="2">
+      <c r="O13" s="2">
         <v>1</v>
       </c>
-      <c r="L13" s="2">
+      <c r="P13" s="2">
         <v>43</v>
       </c>
-      <c r="M13" s="2">
+      <c r="Q13" s="2">
         <v>14</v>
       </c>
-      <c r="N13" s="2">
+      <c r="R13" s="2">
         <v>25</v>
       </c>
-      <c r="O13" s="2">
+      <c r="S13" s="2">
         <v>12</v>
       </c>
-      <c r="P13" s="2">
+      <c r="T13" s="2">
         <v>21</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="U13" s="2">
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -9081,69 +9404,83 @@
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
     </row>
-    <row r="15" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="7">
-        <v>1</v>
-      </c>
+      <c r="B15" s="7"/>
       <c r="C15" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D15" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E15" s="7">
         <v>1</v>
       </c>
       <c r="F15" s="7">
+        <v>1</v>
+      </c>
+      <c r="G15" s="7">
+        <v>2</v>
+      </c>
+      <c r="H15" s="7">
+        <v>1</v>
+      </c>
+      <c r="I15" s="7">
+        <v>1</v>
+      </c>
+      <c r="J15" s="7">
         <v>0</v>
       </c>
-      <c r="G15" s="7">
+      <c r="K15" s="7">
         <v>9</v>
       </c>
-      <c r="H15" s="7">
+      <c r="L15" s="7">
         <v>3</v>
-      </c>
-      <c r="I15" s="7">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2">
-        <v>0</v>
-      </c>
-      <c r="K15" s="2">
-        <v>2</v>
-      </c>
-      <c r="L15" s="7">
-        <v>1</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N15" s="2">
         <v>0</v>
       </c>
-      <c r="O15" s="7">
+      <c r="O15" s="2">
+        <v>2</v>
+      </c>
+      <c r="P15" s="7">
         <v>1</v>
-      </c>
-      <c r="P15" s="7">
-        <v>3</v>
       </c>
       <c r="Q15" s="7">
         <v>0</v>
       </c>
+      <c r="R15" s="7">
+        <v>0</v>
+      </c>
+      <c r="S15" s="7">
+        <v>1</v>
+      </c>
+      <c r="T15" s="7">
+        <v>3</v>
+      </c>
+      <c r="U15" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -9161,43 +9498,45 @@
       <c r="O16" s="10"/>
       <c r="P16" s="10"/>
       <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="10">
-        <v>1</v>
-      </c>
+      <c r="B17" s="10"/>
       <c r="C17" s="10">
         <v>1</v>
       </c>
       <c r="D17" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" s="10">
         <v>1</v>
       </c>
       <c r="F17" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G17" s="10">
         <v>1</v>
       </c>
       <c r="H17" s="10">
+        <v>1</v>
+      </c>
+      <c r="I17" s="10">
+        <v>1</v>
+      </c>
+      <c r="J17" s="10">
+        <v>3</v>
+      </c>
+      <c r="K17" s="10">
+        <v>1</v>
+      </c>
+      <c r="L17" s="10">
         <v>6</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
       </c>
       <c r="M17">
         <v>1</v>
@@ -9214,8 +9553,20 @@
       <c r="Q17">
         <v>1</v>
       </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="U17">
+        <v>1</v>
+      </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -9224,6 +9575,10 @@
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/2024/.个人/微习惯新世界.xlsx
+++ b/2024/.个人/微习惯新世界.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1.NoteLibrary\StudyNotes\2024\.个人\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DAA7B25-87C2-4BE9-A65E-D1CE0B5F105E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06817A97-FEE6-47A9-BBE3-4F9023E47520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="全部图表" sheetId="3" r:id="rId2"/>
     <sheet name="事业发展" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="34">
   <si>
     <t>微习惯💎</t>
   </si>
@@ -132,12 +132,16 @@
     <t>百科</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>❌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,13 +165,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF0070C0"/>
       <name val="等线"/>
       <family val="3"/>
@@ -176,14 +173,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFFC000"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <family val="2"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFFC000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -262,7 +259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -286,25 +283,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -457,65 +445,71 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>全部图表!$C$1:$U$1</c:f>
+              <c:f>全部图表!$E$1:$Y$1</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
+                  <c:v>45312</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45311</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>45310</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>45309</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>45308</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>45307</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>45306</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>45305</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>45304</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>45303</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>45302</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>45301</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>45300</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>45299</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>45298</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>45297</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>45296</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>45295</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>45294</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>45293</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="20">
                   <c:v>45292</c:v>
                 </c:pt>
               </c:numCache>
@@ -523,12 +517,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>全部图表!$C$2:$U$2</c:f>
+              <c:f>全部图表!$E$2:$Y$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>159.5</c:v>
+                  <c:v>158.69999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>159.5</c:v>
@@ -540,48 +534,54 @@
                   <c:v>159.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>159.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>159.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>159.6</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>159.80000000000001</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>159.9</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>161.19999999999999</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>160.4</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>162.4</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>162.9</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>163.5</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>161</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>161</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>162.9</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>164</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>164.8</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>164.8</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="20">
                   <c:v>164.8</c:v>
                 </c:pt>
               </c:numCache>
@@ -870,65 +870,71 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>全部图表!$C$1:$U$1</c:f>
+              <c:f>全部图表!$E$1:$Y$1</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
+                  <c:v>45312</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45311</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>45310</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>45309</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>45308</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>45307</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>45306</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>45305</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>45304</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>45303</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>45302</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>45301</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>45300</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>45299</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>45298</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>45297</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>45296</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>45295</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>45294</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>45293</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="20">
                   <c:v>45292</c:v>
                 </c:pt>
               </c:numCache>
@@ -936,24 +942,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>全部图表!$C$3:$U$3</c:f>
+              <c:f>全部图表!$E$3:$Y$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>80</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -962,31 +968,31 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>50</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>30</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
@@ -995,6 +1001,12 @@
                   <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
@@ -1348,65 +1360,71 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>全部图表!$C$1:$U$1</c:f>
+              <c:f>全部图表!$E$1:$Y$1</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
+                  <c:v>45312</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45311</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>45310</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>45309</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>45308</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>45307</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>45306</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>45305</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>45304</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>45303</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>45302</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>45301</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>45300</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>45299</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>45298</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>45297</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>45296</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>45295</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>45294</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>45293</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="20">
                   <c:v>45292</c:v>
                 </c:pt>
               </c:numCache>
@@ -1414,10 +1432,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>全部图表!$C$6:$U$6</c:f>
+              <c:f>全部图表!$E$6:$Y$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1437,25 +1455,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>120</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>60</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -1473,6 +1491,12 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1580,65 +1604,71 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>全部图表!$C$1:$U$1</c:f>
+              <c:f>全部图表!$E$1:$Y$1</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
+                  <c:v>45312</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45311</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>45310</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>45309</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>45308</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>45307</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>45306</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>45305</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>45304</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>45303</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>45302</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>45301</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>45300</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>45299</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>45298</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>45297</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>45296</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>45295</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>45294</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>45293</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="20">
                   <c:v>45292</c:v>
                 </c:pt>
               </c:numCache>
@@ -1646,48 +1676,48 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>全部图表!$C$7:$U$7</c:f>
+              <c:f>全部图表!$E$7:$Y$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -1705,6 +1735,12 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2014,7 +2050,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>全部图表!$C$1:$U$1</c:f>
+              <c:f>全部图表!$G$1:$Y$1</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
                 <c:ptCount val="19"/>
@@ -2080,7 +2116,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>全部图表!$C$9:$U$9</c:f>
+              <c:f>全部图表!$G$9:$Y$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -2432,7 +2468,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>全部图表!$C$1:$U$1</c:f>
+              <c:f>全部图表!$G$1:$Y$1</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
                 <c:ptCount val="19"/>
@@ -2498,7 +2534,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>全部图表!$C$11:$U$11</c:f>
+              <c:f>全部图表!$G$11:$Y$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -7654,7 +7690,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
@@ -7690,7 +7726,7 @@
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
@@ -7726,7 +7762,7 @@
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>64</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
@@ -7762,7 +7798,7 @@
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
       <xdr:row>91</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -7800,7 +7836,7 @@
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
       <xdr:row>77</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
@@ -8137,99 +8173,129 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13AD3505-AB6F-47A4-83BE-C57C66D74A34}">
-  <dimension ref="A1:V10"/>
+  <dimension ref="A1:X10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.88671875" customWidth="1"/>
-    <col min="2" max="20" width="10.77734375" customWidth="1"/>
-    <col min="21" max="21" width="10.77734375" style="15" customWidth="1"/>
-    <col min="22" max="22" width="10.77734375" customWidth="1"/>
+    <col min="2" max="21" width="10.77734375" customWidth="1"/>
+    <col min="22" max="22" width="10.77734375" style="12" customWidth="1"/>
+    <col min="23" max="24" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
+      <c r="B1" s="5">
+        <v>45314</v>
+      </c>
       <c r="C1" s="5">
+        <v>45313</v>
+      </c>
+      <c r="D1" s="5">
+        <v>45312</v>
+      </c>
+      <c r="E1" s="5">
+        <f>D1-1</f>
+        <v>45311</v>
+      </c>
+      <c r="F1" s="5">
+        <f t="shared" ref="F1:X1" si="0">E1-1</f>
+        <v>45310</v>
+      </c>
+      <c r="G1" s="5">
+        <f t="shared" si="0"/>
+        <v>45309</v>
+      </c>
+      <c r="H1" s="5">
+        <f t="shared" si="0"/>
+        <v>45308</v>
+      </c>
+      <c r="I1" s="5">
+        <f t="shared" si="0"/>
+        <v>45307</v>
+      </c>
+      <c r="J1" s="5">
+        <f t="shared" si="0"/>
+        <v>45306</v>
+      </c>
+      <c r="K1" s="5">
+        <f t="shared" si="0"/>
+        <v>45305</v>
+      </c>
+      <c r="L1" s="5">
+        <f t="shared" si="0"/>
+        <v>45304</v>
+      </c>
+      <c r="M1" s="5">
+        <f t="shared" si="0"/>
+        <v>45303</v>
+      </c>
+      <c r="N1" s="5">
+        <f t="shared" si="0"/>
+        <v>45302</v>
+      </c>
+      <c r="O1" s="5">
+        <f t="shared" si="0"/>
+        <v>45301</v>
+      </c>
+      <c r="P1" s="5">
+        <f t="shared" si="0"/>
+        <v>45300</v>
+      </c>
+      <c r="Q1" s="5">
+        <f t="shared" si="0"/>
+        <v>45299</v>
+      </c>
+      <c r="R1" s="5">
+        <f t="shared" si="0"/>
+        <v>45298</v>
+      </c>
+      <c r="S1" s="5">
+        <f t="shared" si="0"/>
+        <v>45297</v>
+      </c>
+      <c r="T1" s="5">
+        <f t="shared" si="0"/>
+        <v>45296</v>
+      </c>
+      <c r="U1" s="5">
+        <f t="shared" si="0"/>
+        <v>45295</v>
+      </c>
+      <c r="V1" s="5">
+        <f t="shared" si="0"/>
+        <v>45294</v>
+      </c>
+      <c r="W1" s="5">
+        <f t="shared" si="0"/>
+        <v>45293</v>
+      </c>
+      <c r="X1" s="5">
+        <f t="shared" si="0"/>
         <v>45292</v>
       </c>
-      <c r="D1" s="5">
-        <v>45293</v>
-      </c>
-      <c r="E1" s="5">
-        <v>45294</v>
-      </c>
-      <c r="F1" s="5">
-        <v>45295</v>
-      </c>
-      <c r="G1" s="5">
-        <v>45296</v>
-      </c>
-      <c r="H1" s="5">
-        <v>45297</v>
-      </c>
-      <c r="I1" s="5">
-        <v>45298</v>
-      </c>
-      <c r="J1" s="5">
-        <v>45299</v>
-      </c>
-      <c r="K1" s="5">
-        <v>45300</v>
-      </c>
-      <c r="L1" s="5">
-        <v>45301</v>
-      </c>
-      <c r="M1" s="5">
-        <v>45302</v>
-      </c>
-      <c r="N1" s="5">
-        <v>45303</v>
-      </c>
-      <c r="O1" s="5">
-        <v>45304</v>
-      </c>
-      <c r="P1" s="5">
-        <v>45305</v>
-      </c>
-      <c r="Q1" s="5">
-        <v>45306</v>
-      </c>
-      <c r="R1" s="5">
-        <v>45307</v>
-      </c>
-      <c r="S1" s="5">
-        <v>45308</v>
-      </c>
-      <c r="T1" s="5">
-        <v>45309</v>
-      </c>
-      <c r="U1" s="13">
-        <v>45310</v>
-      </c>
-      <c r="V1" s="5">
-        <v>45311</v>
-      </c>
     </row>
-    <row r="2" spans="1:22" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="C2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>4</v>
+      <c r="D2" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>4</v>
@@ -8240,22 +8306,22 @@
       <c r="H2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="N2" s="8" t="s">
+      <c r="I2" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="10" t="s">
         <v>4</v>
       </c>
       <c r="O2" s="8" t="s">
@@ -8267,31 +8333,43 @@
       <c r="Q2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="9"/>
+      <c r="R2" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="S2" s="8" t="s">
         <v>4</v>
       </c>
       <c r="T2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="V2" s="9"/>
+      <c r="U2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="W2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="X2" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:22" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="C3" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>4</v>
+      <c r="E3" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>4</v>
@@ -8305,20 +8383,20 @@
       <c r="I3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="N3" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="O3" s="8" t="s">
+      <c r="J3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" s="10" t="s">
         <v>4</v>
       </c>
       <c r="P3" s="8" t="s">
@@ -8336,24 +8414,34 @@
       <c r="T3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="U3" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="V3" s="9"/>
+      <c r="U3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="V3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="W3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="X3" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="4" spans="1:22" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="C4" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>4</v>
+      <c r="E4" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>4</v>
@@ -8367,22 +8455,22 @@
       <c r="I4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="M4" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="N4" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="O4" s="8" t="s">
+      <c r="J4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" s="10" t="s">
         <v>4</v>
       </c>
       <c r="P4" s="8" t="s">
@@ -8400,24 +8488,34 @@
       <c r="T4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="U4" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="V4" s="9"/>
+      <c r="U4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="V4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="W4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="X4" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="5" spans="1:22" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4"/>
+      <c r="B5" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="C5" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>4</v>
+      <c r="E5" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>4</v>
@@ -8431,22 +8529,22 @@
       <c r="I5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="M5" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="N5" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="O5" s="8" t="s">
+      <c r="J5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5" s="10" t="s">
         <v>4</v>
       </c>
       <c r="P5" s="8" t="s">
@@ -8464,24 +8562,34 @@
       <c r="T5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="U5" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="V5" s="9"/>
+      <c r="U5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="V5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="W5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="X5" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="6" spans="1:22" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4"/>
+      <c r="B6" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="C6" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>4</v>
+      <c r="E6" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>4</v>
@@ -8495,22 +8603,22 @@
       <c r="I6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="M6" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="N6" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="O6" s="8" t="s">
+      <c r="J6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="O6" s="10" t="s">
         <v>4</v>
       </c>
       <c r="P6" s="8" t="s">
@@ -8528,24 +8636,34 @@
       <c r="T6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="U6" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="V6" s="9"/>
+      <c r="U6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="V6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="W6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="X6" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="7" spans="1:22" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="4"/>
+      <c r="B7" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="C7" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>4</v>
+      <c r="E7" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>4</v>
@@ -8559,22 +8677,22 @@
       <c r="I7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J7" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="K7" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="L7" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="M7" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="N7" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="O7" s="8" t="s">
+      <c r="J7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="O7" s="10" t="s">
         <v>4</v>
       </c>
       <c r="P7" s="8" t="s">
@@ -8592,24 +8710,34 @@
       <c r="T7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="U7" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="V7" s="9"/>
+      <c r="U7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="V7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="W7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="X7" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="8" spans="1:22" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="4"/>
+      <c r="B8" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="C8" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>4</v>
+      <c r="E8" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>4</v>
@@ -8623,22 +8751,22 @@
       <c r="I8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="M8" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="N8" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="O8" s="8" t="s">
+      <c r="J8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" s="10" t="s">
         <v>4</v>
       </c>
       <c r="P8" s="8" t="s">
@@ -8656,14 +8784,20 @@
       <c r="T8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="U8" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="V8" s="9" t="s">
+      <c r="U8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="V8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="W8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="X8" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -8676,21 +8810,24 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:22" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="4" t="s">
+    <row r="10" spans="1:24" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>4</v>
-      </c>
       <c r="E10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -8702,209 +8839,245 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46AAD2A0-53C1-4B51-8443-D48BC613435D}">
-  <dimension ref="A1:U18"/>
+  <dimension ref="A1:Y18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="26" width="10.77734375" customWidth="1"/>
+    <col min="2" max="30" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="3">
+        <v>45315</v>
+      </c>
+      <c r="C1" s="3">
+        <v>45314</v>
+      </c>
+      <c r="D1" s="3">
+        <v>45313</v>
+      </c>
+      <c r="E1" s="3">
+        <v>45312</v>
+      </c>
+      <c r="F1" s="3">
         <v>45311</v>
       </c>
-      <c r="C1" s="3">
+      <c r="G1" s="3">
         <v>45310</v>
       </c>
-      <c r="D1" s="3">
+      <c r="H1" s="3">
         <v>45309</v>
       </c>
-      <c r="E1" s="3">
+      <c r="I1" s="3">
         <v>45308</v>
       </c>
-      <c r="F1" s="3">
+      <c r="J1" s="3">
         <v>45307</v>
       </c>
-      <c r="G1" s="3">
+      <c r="K1" s="3">
         <v>45306</v>
       </c>
-      <c r="H1" s="3">
+      <c r="L1" s="3">
         <v>45305</v>
       </c>
-      <c r="I1" s="3">
+      <c r="M1" s="3">
         <v>45304</v>
       </c>
-      <c r="J1" s="3">
+      <c r="N1" s="3">
         <v>45303</v>
       </c>
-      <c r="K1" s="3">
+      <c r="O1" s="3">
         <v>45302</v>
       </c>
-      <c r="L1" s="3">
+      <c r="P1" s="3">
         <v>45301</v>
       </c>
-      <c r="M1" s="3">
+      <c r="Q1" s="3">
         <v>45300</v>
       </c>
-      <c r="N1" s="3">
+      <c r="R1" s="3">
         <v>45299</v>
       </c>
-      <c r="O1" s="3">
+      <c r="S1" s="3">
         <v>45298</v>
       </c>
-      <c r="P1" s="3">
+      <c r="T1" s="3">
         <v>45297</v>
       </c>
-      <c r="Q1" s="3">
+      <c r="U1" s="3">
         <v>45296</v>
       </c>
-      <c r="R1" s="3">
+      <c r="V1" s="3">
         <v>45295</v>
       </c>
-      <c r="S1" s="3">
+      <c r="W1" s="3">
         <v>45294</v>
       </c>
-      <c r="T1" s="3">
+      <c r="X1" s="3">
         <v>45293</v>
       </c>
-      <c r="U1" s="3">
+      <c r="Y1" s="3">
         <v>45292</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1">
-        <v>159.5</v>
+        <v>158.69999999999999</v>
       </c>
       <c r="D2" s="1">
-        <v>159.5</v>
+        <v>158.69999999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>159.5</v>
+        <v>158.69999999999999</v>
       </c>
       <c r="F2" s="1">
         <v>159.5</v>
       </c>
       <c r="G2" s="1">
+        <v>159.5</v>
+      </c>
+      <c r="H2" s="1">
+        <v>159.5</v>
+      </c>
+      <c r="I2" s="1">
+        <v>159.5</v>
+      </c>
+      <c r="J2" s="1">
+        <v>159.5</v>
+      </c>
+      <c r="K2" s="1">
         <v>159.6</v>
       </c>
-      <c r="H2" s="1">
+      <c r="L2" s="1">
         <v>159.80000000000001</v>
       </c>
-      <c r="I2" s="1">
+      <c r="M2" s="1">
         <v>159.9</v>
       </c>
-      <c r="J2" s="1">
+      <c r="N2" s="1">
         <v>161.19999999999999</v>
       </c>
-      <c r="K2" s="1">
+      <c r="O2" s="1">
         <v>160.4</v>
       </c>
-      <c r="L2" s="1">
+      <c r="P2" s="1">
         <v>162.4</v>
-      </c>
-      <c r="M2" s="1">
-        <v>162.9</v>
-      </c>
-      <c r="N2" s="4">
-        <v>163.5</v>
-      </c>
-      <c r="O2" s="4">
-        <v>161</v>
-      </c>
-      <c r="P2" s="1">
-        <v>161</v>
       </c>
       <c r="Q2" s="1">
         <v>162.9</v>
       </c>
-      <c r="R2" s="1">
+      <c r="R2" s="4">
+        <v>163.5</v>
+      </c>
+      <c r="S2" s="4">
+        <v>161</v>
+      </c>
+      <c r="T2" s="1">
+        <v>161</v>
+      </c>
+      <c r="U2" s="1">
+        <v>162.9</v>
+      </c>
+      <c r="V2" s="1">
         <v>164</v>
       </c>
-      <c r="S2" s="1">
+      <c r="W2" s="1">
         <v>164.8</v>
       </c>
-      <c r="T2" s="1">
+      <c r="X2" s="1">
         <v>164.8</v>
       </c>
-      <c r="U2" s="1">
+      <c r="Y2" s="1">
         <v>164.8</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
         <v>100</v>
       </c>
-      <c r="D3" s="1">
-        <v>80</v>
-      </c>
       <c r="E3" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
       </c>
       <c r="G3" s="1">
+        <v>100</v>
+      </c>
+      <c r="H3" s="1">
+        <v>80</v>
+      </c>
+      <c r="I3" s="1">
+        <v>50</v>
+      </c>
+      <c r="J3" s="1">
         <v>0</v>
       </c>
-      <c r="H3" s="1">
+      <c r="K3" s="1">
         <v>0</v>
       </c>
-      <c r="I3" s="1">
+      <c r="L3" s="1">
         <v>0</v>
       </c>
-      <c r="J3" s="1">
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
         <v>50</v>
       </c>
-      <c r="K3" s="1">
+      <c r="O3" s="1">
         <v>50</v>
       </c>
-      <c r="L3" s="1">
+      <c r="P3" s="1">
         <v>50</v>
       </c>
-      <c r="M3" s="1">
+      <c r="Q3" s="1">
         <v>30</v>
       </c>
-      <c r="N3" s="4">
+      <c r="R3" s="4">
         <v>0</v>
       </c>
-      <c r="O3" s="4">
+      <c r="S3" s="4">
         <v>30</v>
       </c>
-      <c r="P3" s="1">
+      <c r="T3" s="1">
         <v>100</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="U3" s="1">
         <v>0</v>
       </c>
-      <c r="R3" s="1">
+      <c r="V3" s="1">
         <v>200</v>
       </c>
-      <c r="S3" s="1">
+      <c r="W3" s="1">
         <v>0</v>
       </c>
-      <c r="T3" s="1">
+      <c r="X3" s="1">
         <v>200</v>
       </c>
-      <c r="U3" s="1">
+      <c r="Y3" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -8919,10 +9092,10 @@
         <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1">
         <v>0</v>
@@ -8931,43 +9104,55 @@
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="K4" s="1">
         <v>8.5</v>
       </c>
       <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="P4" s="1">
         <v>17</v>
       </c>
-      <c r="M4" s="1">
+      <c r="Q4" s="1">
         <v>8.5</v>
       </c>
-      <c r="N4" s="4">
+      <c r="R4" s="4">
         <v>0</v>
       </c>
-      <c r="O4" s="4">
+      <c r="S4" s="4">
         <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>17</v>
-      </c>
-      <c r="R4" s="1">
-        <v>8.5</v>
-      </c>
-      <c r="S4" s="1">
-        <v>17</v>
       </c>
       <c r="T4" s="1">
         <v>0</v>
       </c>
       <c r="U4" s="1">
+        <v>17</v>
+      </c>
+      <c r="V4" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="W4" s="1">
+        <v>17</v>
+      </c>
+      <c r="X4" s="1">
         <v>0</v>
       </c>
+      <c r="Y4" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -8999,18 +9184,30 @@
       <c r="K5" s="1">
         <v>0</v>
       </c>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
     </row>
-    <row r="6" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -9034,7 +9231,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -9046,9 +9243,9 @@
         <v>0</v>
       </c>
       <c r="M6" s="1">
-        <v>60</v>
-      </c>
-      <c r="N6" s="4">
+        <v>120</v>
+      </c>
+      <c r="N6" s="1">
         <v>0</v>
       </c>
       <c r="O6" s="1">
@@ -9058,9 +9255,9 @@
         <v>0</v>
       </c>
       <c r="Q6" s="1">
-        <v>0</v>
-      </c>
-      <c r="R6" s="1">
+        <v>60</v>
+      </c>
+      <c r="R6" s="4">
         <v>0</v>
       </c>
       <c r="S6" s="1">
@@ -9072,20 +9269,32 @@
       <c r="U6" s="1">
         <v>0</v>
       </c>
+      <c r="V6" s="1">
+        <v>0</v>
+      </c>
+      <c r="W6" s="1">
+        <v>0</v>
+      </c>
+      <c r="X6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -9094,10 +9303,10 @@
         <v>0</v>
       </c>
       <c r="H7" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -9106,24 +9315,24 @@
         <v>0</v>
       </c>
       <c r="L7" s="1">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="M7" s="1">
-        <v>200</v>
-      </c>
-      <c r="N7" s="4">
+        <v>50</v>
+      </c>
+      <c r="N7" s="1">
         <v>0</v>
       </c>
       <c r="O7" s="1">
         <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="1">
-        <v>0</v>
-      </c>
-      <c r="R7" s="1">
+        <v>200</v>
+      </c>
+      <c r="R7" s="4">
         <v>0</v>
       </c>
       <c r="S7" s="1">
@@ -9135,8 +9344,20 @@
       <c r="U7" s="1">
         <v>0</v>
       </c>
+      <c r="V7" s="1">
+        <v>0</v>
+      </c>
+      <c r="W7" s="1">
+        <v>0</v>
+      </c>
+      <c r="X7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -9150,31 +9371,35 @@
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
     </row>
-    <row r="9" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D9" s="7">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="E9" s="7">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F9" s="7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G9" s="7">
         <v>20</v>
@@ -9183,46 +9408,58 @@
         <v>20</v>
       </c>
       <c r="I9" s="7">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J9" s="7">
         <v>20</v>
       </c>
       <c r="K9" s="7">
+        <v>20</v>
+      </c>
+      <c r="L9" s="7">
+        <v>20</v>
+      </c>
+      <c r="M9" s="7">
+        <v>50</v>
+      </c>
+      <c r="N9" s="7">
+        <v>20</v>
+      </c>
+      <c r="O9" s="7">
         <v>10</v>
       </c>
-      <c r="L9" s="7">
+      <c r="P9" s="7">
         <v>100</v>
       </c>
-      <c r="M9" s="7">
+      <c r="Q9" s="7">
         <v>40</v>
       </c>
-      <c r="N9" s="2">
+      <c r="R9" s="2">
         <v>10</v>
       </c>
-      <c r="O9" s="2">
+      <c r="S9" s="2">
         <v>10</v>
       </c>
-      <c r="P9" s="7">
+      <c r="T9" s="7">
         <v>10</v>
       </c>
-      <c r="Q9" s="7">
+      <c r="U9" s="7">
         <v>100</v>
       </c>
-      <c r="R9" s="7">
+      <c r="V9" s="7">
         <v>60</v>
       </c>
-      <c r="S9" s="7">
+      <c r="W9" s="7">
         <v>10</v>
       </c>
-      <c r="T9" s="7">
+      <c r="X9" s="7">
         <v>170</v>
       </c>
-      <c r="U9" s="7">
+      <c r="Y9" s="7">
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -9236,79 +9473,95 @@
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
     </row>
-    <row r="11" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D11" s="7">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E11" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F11" s="7">
         <v>0</v>
       </c>
       <c r="G11" s="7">
+        <v>10</v>
+      </c>
+      <c r="H11" s="7">
+        <v>25</v>
+      </c>
+      <c r="I11" s="7">
+        <v>11</v>
+      </c>
+      <c r="J11" s="7">
+        <v>0</v>
+      </c>
+      <c r="K11" s="7">
         <v>16</v>
       </c>
-      <c r="H11" s="7">
+      <c r="L11" s="7">
         <v>10</v>
       </c>
-      <c r="I11" s="7">
+      <c r="M11" s="7">
         <v>14</v>
       </c>
-      <c r="J11" s="7">
+      <c r="N11" s="7">
         <v>30</v>
       </c>
-      <c r="K11" s="7">
+      <c r="O11" s="7">
         <v>10</v>
       </c>
-      <c r="L11" s="7">
+      <c r="P11" s="7">
         <v>16</v>
       </c>
-      <c r="M11" s="7">
+      <c r="Q11" s="7">
         <v>25</v>
       </c>
-      <c r="N11" s="2">
+      <c r="R11" s="2">
         <v>0</v>
       </c>
-      <c r="O11" s="2">
+      <c r="S11" s="2">
         <v>5</v>
       </c>
-      <c r="P11" s="7">
+      <c r="T11" s="7">
         <v>30</v>
       </c>
-      <c r="Q11" s="7">
+      <c r="U11" s="7">
         <v>10</v>
       </c>
-      <c r="R11" s="7">
+      <c r="V11" s="7">
         <v>10</v>
       </c>
-      <c r="S11" s="7">
+      <c r="W11" s="7">
         <v>10</v>
       </c>
-      <c r="T11" s="7">
+      <c r="X11" s="7">
         <v>10</v>
       </c>
-      <c r="U11" s="7">
+      <c r="Y11" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -9322,79 +9575,95 @@
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
       <c r="T12" s="7"/>
       <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
     </row>
-    <row r="13" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2">
+        <v>8</v>
+      </c>
+      <c r="D13" s="2">
+        <v>14</v>
+      </c>
+      <c r="E13" s="2">
+        <v>15</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
         <v>1</v>
       </c>
-      <c r="D13" s="2">
+      <c r="H13" s="2">
         <v>5</v>
       </c>
-      <c r="E13" s="2">
-        <v>4</v>
-      </c>
-      <c r="F13" s="2">
+      <c r="I13" s="2">
+        <v>4</v>
+      </c>
+      <c r="J13" s="2">
         <v>95</v>
       </c>
-      <c r="G13" s="2">
+      <c r="K13" s="2">
         <v>80</v>
       </c>
-      <c r="H13" s="2">
+      <c r="L13" s="2">
         <v>15</v>
       </c>
-      <c r="I13" s="2">
+      <c r="M13" s="2">
         <v>29</v>
       </c>
-      <c r="J13" s="2">
+      <c r="N13" s="2">
         <v>40</v>
       </c>
-      <c r="K13" s="2">
+      <c r="O13" s="2">
         <v>45</v>
       </c>
-      <c r="L13" s="2">
+      <c r="P13" s="2">
         <v>31</v>
       </c>
-      <c r="M13" s="2">
+      <c r="Q13" s="2">
         <v>12</v>
       </c>
-      <c r="N13" s="2">
+      <c r="R13" s="2">
         <v>84</v>
       </c>
-      <c r="O13" s="2">
+      <c r="S13" s="2">
         <v>1</v>
       </c>
-      <c r="P13" s="2">
+      <c r="T13" s="2">
         <v>43</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="U13" s="2">
         <v>14</v>
       </c>
-      <c r="R13" s="2">
+      <c r="V13" s="2">
         <v>25</v>
       </c>
-      <c r="S13" s="2">
+      <c r="W13" s="2">
         <v>12</v>
       </c>
-      <c r="T13" s="2">
+      <c r="X13" s="2">
         <v>21</v>
       </c>
-      <c r="U13" s="2">
+      <c r="Y13" s="2">
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -9408,147 +9677,167 @@
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
       <c r="T14" s="7"/>
       <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
     </row>
-    <row r="15" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7">
+        <v>11</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="7">
         <v>0</v>
       </c>
-      <c r="D15" s="7">
+      <c r="F15" s="7">
+        <v>2</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0</v>
+      </c>
+      <c r="H15" s="7">
         <v>6</v>
-      </c>
-      <c r="E15" s="7">
-        <v>1</v>
-      </c>
-      <c r="F15" s="7">
-        <v>1</v>
-      </c>
-      <c r="G15" s="7">
-        <v>2</v>
-      </c>
-      <c r="H15" s="7">
-        <v>1</v>
       </c>
       <c r="I15" s="7">
         <v>1</v>
       </c>
       <c r="J15" s="7">
+        <v>1</v>
+      </c>
+      <c r="K15" s="7">
+        <v>2</v>
+      </c>
+      <c r="L15" s="7">
+        <v>1</v>
+      </c>
+      <c r="M15" s="7">
+        <v>1</v>
+      </c>
+      <c r="N15" s="7">
         <v>0</v>
       </c>
-      <c r="K15" s="7">
+      <c r="O15" s="7">
         <v>9</v>
       </c>
-      <c r="L15" s="7">
+      <c r="P15" s="7">
         <v>3</v>
-      </c>
-      <c r="M15" s="7">
-        <v>0</v>
-      </c>
-      <c r="N15" s="2">
-        <v>0</v>
-      </c>
-      <c r="O15" s="2">
-        <v>2</v>
-      </c>
-      <c r="P15" s="7">
-        <v>1</v>
       </c>
       <c r="Q15" s="7">
         <v>0</v>
       </c>
-      <c r="R15" s="7">
+      <c r="R15" s="2">
         <v>0</v>
       </c>
-      <c r="S15" s="7">
+      <c r="S15" s="2">
+        <v>2</v>
+      </c>
+      <c r="T15" s="7">
         <v>1</v>
-      </c>
-      <c r="T15" s="7">
-        <v>3</v>
       </c>
       <c r="U15" s="7">
         <v>0</v>
       </c>
+      <c r="V15" s="7">
+        <v>0</v>
+      </c>
+      <c r="W15" s="7">
+        <v>1</v>
+      </c>
+      <c r="X15" s="7">
+        <v>3</v>
+      </c>
+      <c r="Y15" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="9"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9">
+        <v>4</v>
+      </c>
+      <c r="D17" s="9">
         <v>1</v>
       </c>
-      <c r="D17" s="10">
+      <c r="E17" s="9">
+        <v>1</v>
+      </c>
+      <c r="F17" s="9">
+        <v>0</v>
+      </c>
+      <c r="G17" s="9">
+        <v>1</v>
+      </c>
+      <c r="H17" s="9">
         <v>2</v>
       </c>
-      <c r="E17" s="10">
+      <c r="I17" s="9">
         <v>1</v>
       </c>
-      <c r="F17" s="10">
+      <c r="J17" s="9">
         <v>1</v>
       </c>
-      <c r="G17" s="10">
+      <c r="K17" s="9">
         <v>1</v>
       </c>
-      <c r="H17" s="10">
+      <c r="L17" s="9">
         <v>1</v>
       </c>
-      <c r="I17" s="10">
+      <c r="M17" s="9">
         <v>1</v>
       </c>
-      <c r="J17" s="10">
+      <c r="N17" s="9">
         <v>3</v>
       </c>
-      <c r="K17" s="10">
+      <c r="O17" s="9">
         <v>1</v>
       </c>
-      <c r="L17" s="10">
+      <c r="P17" s="9">
         <v>6</v>
-      </c>
-      <c r="M17">
-        <v>1</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>1</v>
-      </c>
-      <c r="P17">
-        <v>1</v>
       </c>
       <c r="Q17">
         <v>1</v>
@@ -9565,20 +9854,36 @@
       <c r="U17">
         <v>1</v>
       </c>
+      <c r="V17">
+        <v>1</v>
+      </c>
+      <c r="W17">
+        <v>1</v>
+      </c>
+      <c r="X17">
+        <v>1</v>
+      </c>
+      <c r="Y17">
+        <v>1</v>
+      </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
